--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Action.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="685">
   <si>
     <t>Title</t>
   </si>
@@ -2117,6 +2117,9 @@
   </si>
   <si>
     <t>2021-05-21T07:48:06Z</t>
+  </si>
+  <si>
+    <t>2021-05-27T13:04:45Z</t>
   </si>
 </sst>
 </file>
@@ -7549,7 +7552,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Action.xlsx
@@ -1,2153 +1,2192 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <x:workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath url="C:\Users\m.aslam.sheikh\Downloads\GenericUploader_Template_updated (1)\GenericUploader_Template_updated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonal.harish.nagda\ART\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A0E638-A40F-4583-8264-3AC120DB67BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Change History" sheetId="25" r:id="rId1"/>
-    <x:sheet name="Read me" sheetId="24" r:id="rId2"/>
-    <x:sheet name="Action" sheetId="33" r:id="rId3"/>
-    <x:sheet name="DataValidation" sheetId="34" state="hidden" r:id="rId4"/>
-  </x:sheets>
-  <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Read me'!#REF!</x:definedName>
-  </x:definedNames>
-  <x:calcPr calcId="191029"/>
-  <x:extLst>
-    <x:ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6875EEB-C857-43B4-981C-E380F4C00387}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Change History" sheetId="25" r:id="rId1"/>
+    <sheet name="Read me" sheetId="24" r:id="rId2"/>
+    <sheet name="Action" sheetId="33" r:id="rId3"/>
+    <sheet name="DataValidation" sheetId="34" state="hidden" r:id="rId4"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Read me'!#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-    <x:ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="694">
-  <x:si>
-    <x:t>Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Owner</x:t>
-  </x:si>
-  <x:si>
-    <x:t>State</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Escalation Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Severity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Currency</x:t>
-  </x:si>
-  <x:si>
-    <x:t>None</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Functional</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Architecture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>US Dollar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Team</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Requirements/Features</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Indian Rupee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Iteration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Design</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Australian Dollar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Workstream</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Build</x:t>
-  </x:si>
-  <x:si>
-    <x:t>British Pound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Euro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Client</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unclassified</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Release</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Canadian Dollar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Singapore Dollar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chinese Yaun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Japenese Yen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deploy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project Management</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Application</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Change Enablement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Service Introduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Technology</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle Apps</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cobol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>.Net</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mainframe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Testing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Name of Action</x:t>
-  </x:si>
-  <x:si>
-    <x:t>How to Perform Action</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mandatory Fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Fields highlighted in Red are mandatory </x:t>
-  </x:si>
-  <x:si>
-    <x:t>x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Good Practices</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extract</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Always extract the data before uploading. Download the extract, make the changes &amp; then upload</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DateFormat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Time Format</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Field specification</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Autopopulate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Below are the common Multi value field mapping to Uid across entities</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Technical Attributes Mapped</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Version No</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reason for Update</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Last Update Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>External Id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Epic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>External URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hong Kong Dollar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Israeli Shekel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked Entities[].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200980-0010-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200980-0020-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200980-0030-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200980-0040-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200980-0050-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200980-0060-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200980-0070-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200980-0080-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200980-0090-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200980-0100-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200980-0110-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200920-0010-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200920-0020-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200920-0030-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200920-0040-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200920-0050-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200920-0060-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200400-0030-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0010-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle Siebel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0020-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0030-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0040-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0050-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Java/J2EE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0060-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Other</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0070-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0080-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DW/BI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0090-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cramer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0100-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIBCO-SOA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0110-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Content Mgmt-Vignette</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0120-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Content Mgmt-Documentum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0130-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lodestar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0140-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Middleware</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0150-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Midrange</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0160-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C/C++</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0170-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Informatica</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0180-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SQL Server</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0190-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sybase</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0200-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kenan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0210-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle PeopleSoft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0220-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amdocs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0230-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ATG Ecommerce</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0240-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BEA/ALSB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0250-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Biztalk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0260-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C/C++/Unix</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0270-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Callidus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0280-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Centura</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0290-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cognos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0300-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dynamics CRM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0310-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0320-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JCAPS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0330-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Microsoft Dynamics AX (Axapta)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0340-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Microsoft SQL BI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0350-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MOSS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0360-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle Fusion Middleware</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0370-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle identity Access Management</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0380-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PL/SQL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0390-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0400-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SFDC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0410-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SingleView/Perl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0420-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SOA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0430-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Symbian</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0440-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0450-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Web Methods</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0460-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Web sphere</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0470-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GE SmallWorld/GIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0480-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle JD Edwards</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0490-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VBA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0500-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAP Ariba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0510-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Microsoft Virtualization/Hyper V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0520-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Silverlight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0530-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle BRM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0540-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle (Utilities)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0550-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0560-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linux</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0570-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DBA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0580-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amazon Web Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0590-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BlackBerry10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0600-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C/C++/Assembly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0610-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coremedia CMS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0620-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBM-WebSphere-Commerce</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0630-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Actuate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0640-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crystal Reports</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0650-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAMP (Linux, Apache, MySQL and PHP) stack to the technology</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0660-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle Netsuite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0670-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Opentext DAM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0680-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pega</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0690-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salesforce.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0700-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAP BI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0710-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAP ByD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0720-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Workday</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0730-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle Fusion Apps</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0740-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Excentive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0750-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AWS (Amazon Web Services)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0760-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAP SuccessFactors</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0770-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Netezza (DBA appliance)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0780-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Qlikview (Reporting)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0790-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liferay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0800-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drupal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0810-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adobe CQ5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0820-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SDL Tridion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0830-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vmware</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0840-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Solaris</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0850-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Datastage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0860-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kalido</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0870-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle RAC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0880-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAP BO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0890-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0900-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Microsoft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0910-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0920-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Accela</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0930-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Versa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0940-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mobility</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0950-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apache Wicket</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0960-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BigData</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0970-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hadoop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0980-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAP Hybris</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-0990-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Android</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-1000-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>iOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-1100-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jquery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-1200-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sencha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-1300-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EPIServer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-1400-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HTML</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-1500-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tibco Spotfire</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-1600-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Microstrategy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-1700-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Appcelerator</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-1800-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-1900-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBM Worklight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-2000-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kony</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-2100-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Angular JS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-2200-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Node JS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-2300-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle ADF</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-2400-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windows Mobile</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-2500-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Touch/React JS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-2600-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cordova</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-2700-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windows CE .Net</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-2800-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embedded Linux</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-2900-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NFC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-3000-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xamarin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-3100-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tableau</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-3200-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Teradata</x:t>
-  </x:si>
-  <x:si>
-    <x:t>00200930-3300-0000-0000-000000000000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBM FileNet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SiteCore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAS Reporting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cerner</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pantaho</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBM Curam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ISIS Papyrus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOC1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBM FORMS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALIP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AS400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Avaloq</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ColdFusion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DCT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FPS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Genesys - Contact Center</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GPP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Guidewire</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IRIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Papyrus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Swift</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TEMENOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIBCO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TIBCO - Businessworks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tridion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baan ERP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Celum</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delphi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle Apps Finance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle PDH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PIM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QAD(ERP)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tibco-SOA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windchill PLM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MuleSoft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adobe Campaign Management</x:t>
-  </x:si>
-  <x:si>
-    <x:t>eMeter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Intergraph SmartPlant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MDM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle-Energy/Utilities</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Talend ETL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SnapLogic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Angular2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embedded Automotive Testing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HTML5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ionic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mobile Device Management</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OpenLink Endur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Python</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAP ABAP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAP Mobile Platform</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APIGEE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AVS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coupa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Custom development</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Custom Java</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Demandware</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e- Learning Tools (STT/Lectoral)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Google  Cloud Platform</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Google Apps  Script</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Google Search Appliance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP Quality Center Rational Application</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JDA – Warehouse Management</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Legacy Application - Visual Basic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Microsoft Exchange</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Microsoft Sharepoint</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MS Office Application</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle CC&amp;B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle RODOD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SaaS (Kronos)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salesforce</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ServiceNow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Talend</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weblogic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Google</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Magento</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle HCM Cloud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle Hyperion Planning/Financial Reporting</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ServiceMax</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UNIX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dell Boomi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Analytics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Interactive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LoanIQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C#</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DPM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Predix</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quest</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SCCM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SCOM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shell Script</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Concur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JDA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle Agile PLM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle CX - Oracle CPQ Cloud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle CX - Oracle Marketing Cloud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle CX-Oracle Sal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle CX-Oracle Ser</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle E-Business Suite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle ERP Cloud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle Hyperion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle Primavera</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle Transportation Management</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAP Cloud for Customer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAP Fieldglass</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAP Integrated Business Planning</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PIE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pinpoint</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DWH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eclipse</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Myriad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BODS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OTIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EWS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Online</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Selenium</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Web.Net</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ab Initio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ARIBA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Microsoft Office</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Informix</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFM Lite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Field OCR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ATCAT &amp; APC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Siebel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Prism</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RPA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Testing and RPA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sailpoint</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cloudera</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Big Data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ETL/Python/SQL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PHP/REACT.js</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WorkForce Software</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PragmaCAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PragmaField AssetSuite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Openstack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBM DAtaPower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBM WTX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apigee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Splunk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UiPath</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ARIS Process Design Tools</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP UFT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Digital</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SFSF (Success Factors Success Factors)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Digital-Other</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle Eloqua</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oracle Cloud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Intershop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBM Sterling OMS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RPA and Automation Anywhere</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAP Hybris Ecommerce</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jenkins</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ansible</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elastic Path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test &amp; Defect</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Operate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Infrastructure</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value/Business Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deliverables</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Change Control</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Planning/Estimating</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Management/Governance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>People</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resourcing/Staffing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reporting/Analytics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Knowledge/Assets</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Training/Enablement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Non-Functional</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Updated By </x:t>
-  </x:si>
-  <x:si>
-    <x:t>IdentifiedBy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StateUId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CategoryUId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RequiresAttentionUId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CompletedOn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is the Mywizard user account that last modified the entity in the MyWizard data fabric.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>External Id : Entity Id created in the tool</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Url of the Entity in external tool Instance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Title of the entity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Detailed Description of the entity</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">MyWizard user IDs who have been assigned to the entity 
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="707">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Escalation Level</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Requirements/Features</t>
+  </si>
+  <si>
+    <t>Indian Rupee</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Australian Dollar</t>
+  </si>
+  <si>
+    <t>Workstream</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>British Pound</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Canadian Dollar</t>
+  </si>
+  <si>
+    <t>Singapore Dollar</t>
+  </si>
+  <si>
+    <t>Chinese Yaun</t>
+  </si>
+  <si>
+    <t>Japenese Yen</t>
+  </si>
+  <si>
+    <t>Deploy</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Change Enablement</t>
+  </si>
+  <si>
+    <t>Service Introduction</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>Oracle Apps</t>
+  </si>
+  <si>
+    <t>Cobol</t>
+  </si>
+  <si>
+    <t>.Net</t>
+  </si>
+  <si>
+    <t>Mainframe</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Name of Action</t>
+  </si>
+  <si>
+    <t>How to Perform Action</t>
+  </si>
+  <si>
+    <t>Mandatory Fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fields highlighted in Red are mandatory </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Good Practices</t>
+  </si>
+  <si>
+    <t>Extract</t>
+  </si>
+  <si>
+    <t>Always extract the data before uploading. Download the extract, make the changes &amp; then upload</t>
+  </si>
+  <si>
+    <t>DateFormat</t>
+  </si>
+  <si>
+    <t>Time Format</t>
+  </si>
+  <si>
+    <t>Field specification</t>
+  </si>
+  <si>
+    <t>Autopopulate</t>
+  </si>
+  <si>
+    <t>Below are the common Multi value field mapping to Uid across entities</t>
+  </si>
+  <si>
+    <t>Technical Attributes Mapped</t>
+  </si>
+  <si>
+    <t>Version No</t>
+  </si>
+  <si>
+    <t>Reason for Update</t>
+  </si>
+  <si>
+    <t>Last Update Date</t>
+  </si>
+  <si>
+    <t>External Id</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>External URL</t>
+  </si>
+  <si>
+    <t>Hong Kong Dollar</t>
+  </si>
+  <si>
+    <t>Israeli Shekel</t>
+  </si>
+  <si>
+    <t>Linked Entities[].Relationship</t>
+  </si>
+  <si>
+    <t>00200980-0010-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200980-0020-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200980-0030-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200980-0040-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200980-0050-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200980-0060-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200980-0070-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200980-0080-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200980-0090-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200980-0100-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200980-0110-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200920-0010-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200920-0020-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200920-0030-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200920-0040-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200920-0050-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200920-0060-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200400-0030-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200930-0010-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Oracle Siebel</t>
+  </si>
+  <si>
+    <t>00200930-0020-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200930-0030-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200930-0040-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200930-0050-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Java/J2EE</t>
+  </si>
+  <si>
+    <t>00200930-0060-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>00200930-0070-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200930-0080-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>DW/BI</t>
+  </si>
+  <si>
+    <t>00200930-0090-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Cramer</t>
+  </si>
+  <si>
+    <t>00200930-0100-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>TIBCO-SOA</t>
+  </si>
+  <si>
+    <t>00200930-0110-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Content Mgmt-Vignette</t>
+  </si>
+  <si>
+    <t>00200930-0120-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Content Mgmt-Documentum</t>
+  </si>
+  <si>
+    <t>00200930-0130-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Lodestar</t>
+  </si>
+  <si>
+    <t>00200930-0140-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>00200930-0150-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Midrange</t>
+  </si>
+  <si>
+    <t>00200930-0160-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>C/C++</t>
+  </si>
+  <si>
+    <t>00200930-0170-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Informatica</t>
+  </si>
+  <si>
+    <t>00200930-0180-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>00200930-0190-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Sybase</t>
+  </si>
+  <si>
+    <t>00200930-0200-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Kenan</t>
+  </si>
+  <si>
+    <t>00200930-0210-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Oracle PeopleSoft</t>
+  </si>
+  <si>
+    <t>00200930-0220-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Amdocs</t>
+  </si>
+  <si>
+    <t>00200930-0230-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>ATG Ecommerce</t>
+  </si>
+  <si>
+    <t>00200930-0240-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>BEA/ALSB</t>
+  </si>
+  <si>
+    <t>00200930-0250-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Biztalk</t>
+  </si>
+  <si>
+    <t>00200930-0260-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>C/C++/Unix</t>
+  </si>
+  <si>
+    <t>00200930-0270-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Callidus</t>
+  </si>
+  <si>
+    <t>00200930-0280-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Centura</t>
+  </si>
+  <si>
+    <t>00200930-0290-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Cognos</t>
+  </si>
+  <si>
+    <t>00200930-0300-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Dynamics CRM</t>
+  </si>
+  <si>
+    <t>00200930-0310-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200930-0320-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>JCAPS</t>
+  </si>
+  <si>
+    <t>00200930-0330-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Microsoft Dynamics AX (Axapta)</t>
+  </si>
+  <si>
+    <t>00200930-0340-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Microsoft SQL BI</t>
+  </si>
+  <si>
+    <t>00200930-0350-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>MOSS</t>
+  </si>
+  <si>
+    <t>00200930-0360-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Oracle Fusion Middleware</t>
+  </si>
+  <si>
+    <t>00200930-0370-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Oracle identity Access Management</t>
+  </si>
+  <si>
+    <t>00200930-0380-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>PL/SQL</t>
+  </si>
+  <si>
+    <t>00200930-0390-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>PLM</t>
+  </si>
+  <si>
+    <t>00200930-0400-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>SFDC</t>
+  </si>
+  <si>
+    <t>00200930-0410-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>SingleView/Perl</t>
+  </si>
+  <si>
+    <t>00200930-0420-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>SOA</t>
+  </si>
+  <si>
+    <t>00200930-0430-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Symbian</t>
+  </si>
+  <si>
+    <t>00200930-0440-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200930-0450-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Web Methods</t>
+  </si>
+  <si>
+    <t>00200930-0460-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Web sphere</t>
+  </si>
+  <si>
+    <t>00200930-0470-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>GE SmallWorld/GIS</t>
+  </si>
+  <si>
+    <t>00200930-0480-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Oracle JD Edwards</t>
+  </si>
+  <si>
+    <t>00200930-0490-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>VBA</t>
+  </si>
+  <si>
+    <t>00200930-0500-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>SAP Ariba</t>
+  </si>
+  <si>
+    <t>00200930-0510-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Microsoft Virtualization/Hyper V</t>
+  </si>
+  <si>
+    <t>00200930-0520-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Silverlight</t>
+  </si>
+  <si>
+    <t>00200930-0530-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Oracle BRM</t>
+  </si>
+  <si>
+    <t>00200930-0540-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Oracle (Utilities)</t>
+  </si>
+  <si>
+    <t>00200930-0550-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>CAS</t>
+  </si>
+  <si>
+    <t>00200930-0560-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>00200930-0570-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>DBA</t>
+  </si>
+  <si>
+    <t>00200930-0580-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Amazon Web Services</t>
+  </si>
+  <si>
+    <t>00200930-0590-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>BlackBerry10</t>
+  </si>
+  <si>
+    <t>00200930-0600-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>C/C++/Assembly</t>
+  </si>
+  <si>
+    <t>00200930-0610-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Coremedia CMS</t>
+  </si>
+  <si>
+    <t>00200930-0620-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>IBM-WebSphere-Commerce</t>
+  </si>
+  <si>
+    <t>00200930-0630-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Actuate</t>
+  </si>
+  <si>
+    <t>00200930-0640-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Crystal Reports</t>
+  </si>
+  <si>
+    <t>00200930-0650-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>LAMP (Linux, Apache, MySQL and PHP) stack to the technology</t>
+  </si>
+  <si>
+    <t>00200930-0660-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Oracle Netsuite</t>
+  </si>
+  <si>
+    <t>00200930-0670-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Opentext DAM</t>
+  </si>
+  <si>
+    <t>00200930-0680-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Pega</t>
+  </si>
+  <si>
+    <t>00200930-0690-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Salesforce.com</t>
+  </si>
+  <si>
+    <t>00200930-0700-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>SAP BI</t>
+  </si>
+  <si>
+    <t>00200930-0710-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>SAP ByD</t>
+  </si>
+  <si>
+    <t>00200930-0720-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Workday</t>
+  </si>
+  <si>
+    <t>00200930-0730-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Oracle Fusion Apps</t>
+  </si>
+  <si>
+    <t>00200930-0740-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Excentive</t>
+  </si>
+  <si>
+    <t>00200930-0750-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>AWS (Amazon Web Services)</t>
+  </si>
+  <si>
+    <t>00200930-0760-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>SAP SuccessFactors</t>
+  </si>
+  <si>
+    <t>00200930-0770-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Netezza (DBA appliance)</t>
+  </si>
+  <si>
+    <t>00200930-0780-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Qlikview (Reporting)</t>
+  </si>
+  <si>
+    <t>00200930-0790-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Liferay</t>
+  </si>
+  <si>
+    <t>00200930-0800-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Drupal</t>
+  </si>
+  <si>
+    <t>00200930-0810-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Adobe CQ5</t>
+  </si>
+  <si>
+    <t>00200930-0820-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>SDL Tridion</t>
+  </si>
+  <si>
+    <t>00200930-0830-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Vmware</t>
+  </si>
+  <si>
+    <t>00200930-0840-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Solaris</t>
+  </si>
+  <si>
+    <t>00200930-0850-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Datastage</t>
+  </si>
+  <si>
+    <t>00200930-0860-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Kalido</t>
+  </si>
+  <si>
+    <t>00200930-0870-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Oracle RAC</t>
+  </si>
+  <si>
+    <t>00200930-0880-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>SAP BO</t>
+  </si>
+  <si>
+    <t>00200930-0890-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>00200930-0900-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>00200930-0910-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>00200930-0920-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Accela</t>
+  </si>
+  <si>
+    <t>00200930-0930-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Versa</t>
+  </si>
+  <si>
+    <t>00200930-0940-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Mobility</t>
+  </si>
+  <si>
+    <t>00200930-0950-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Apache Wicket</t>
+  </si>
+  <si>
+    <t>00200930-0960-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>BigData</t>
+  </si>
+  <si>
+    <t>00200930-0970-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Hadoop</t>
+  </si>
+  <si>
+    <t>00200930-0980-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>SAP Hybris</t>
+  </si>
+  <si>
+    <t>00200930-0990-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>00200930-1000-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>00200930-1100-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Jquery</t>
+  </si>
+  <si>
+    <t>00200930-1200-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Sencha</t>
+  </si>
+  <si>
+    <t>00200930-1300-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>EPIServer</t>
+  </si>
+  <si>
+    <t>00200930-1400-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>00200930-1500-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Tibco Spotfire</t>
+  </si>
+  <si>
+    <t>00200930-1600-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Microstrategy</t>
+  </si>
+  <si>
+    <t>00200930-1700-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Appcelerator</t>
+  </si>
+  <si>
+    <t>00200930-1800-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>00200930-1900-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>IBM Worklight</t>
+  </si>
+  <si>
+    <t>00200930-2000-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Kony</t>
+  </si>
+  <si>
+    <t>00200930-2100-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Angular JS</t>
+  </si>
+  <si>
+    <t>00200930-2200-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Node JS</t>
+  </si>
+  <si>
+    <t>00200930-2300-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Oracle ADF</t>
+  </si>
+  <si>
+    <t>00200930-2400-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Windows Mobile</t>
+  </si>
+  <si>
+    <t>00200930-2500-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Touch/React JS</t>
+  </si>
+  <si>
+    <t>00200930-2600-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Cordova</t>
+  </si>
+  <si>
+    <t>00200930-2700-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Windows CE .Net</t>
+  </si>
+  <si>
+    <t>00200930-2800-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Embedded Linux</t>
+  </si>
+  <si>
+    <t>00200930-2900-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>NFC</t>
+  </si>
+  <si>
+    <t>00200930-3000-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Xamarin</t>
+  </si>
+  <si>
+    <t>00200930-3100-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>00200930-3200-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>Teradata</t>
+  </si>
+  <si>
+    <t>00200930-3300-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>IBM FileNet</t>
+  </si>
+  <si>
+    <t>SiteCore</t>
+  </si>
+  <si>
+    <t>SAS Reporting</t>
+  </si>
+  <si>
+    <t>Cerner</t>
+  </si>
+  <si>
+    <t>Pantaho</t>
+  </si>
+  <si>
+    <t>IBM Curam</t>
+  </si>
+  <si>
+    <t>ISIS Papyrus</t>
+  </si>
+  <si>
+    <t>DOC1</t>
+  </si>
+  <si>
+    <t>IBM FORMS</t>
+  </si>
+  <si>
+    <t>ALIP</t>
+  </si>
+  <si>
+    <t>AS400</t>
+  </si>
+  <si>
+    <t>Avaloq</t>
+  </si>
+  <si>
+    <t>ColdFusion</t>
+  </si>
+  <si>
+    <t>DCT</t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>Genesys - Contact Center</t>
+  </si>
+  <si>
+    <t>GPP</t>
+  </si>
+  <si>
+    <t>Guidewire</t>
+  </si>
+  <si>
+    <t>IRIS</t>
+  </si>
+  <si>
+    <t>Murex</t>
+  </si>
+  <si>
+    <t>Papyrus</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>TEMENOS</t>
+  </si>
+  <si>
+    <t>TIBCO</t>
+  </si>
+  <si>
+    <t>TIBCO - Businessworks</t>
+  </si>
+  <si>
+    <t>Tridion</t>
+  </si>
+  <si>
+    <t>Baan ERP</t>
+  </si>
+  <si>
+    <t>Celum</t>
+  </si>
+  <si>
+    <t>Delphi</t>
+  </si>
+  <si>
+    <t>Oracle Apps Finance</t>
+  </si>
+  <si>
+    <t>Oracle PDH</t>
+  </si>
+  <si>
+    <t>PIM</t>
+  </si>
+  <si>
+    <t>QAD(ERP)</t>
+  </si>
+  <si>
+    <t>Tibco-SOA</t>
+  </si>
+  <si>
+    <t>Windchill PLM</t>
+  </si>
+  <si>
+    <t>MuleSoft</t>
+  </si>
+  <si>
+    <t>Adobe Campaign Management</t>
+  </si>
+  <si>
+    <t>eMeter</t>
+  </si>
+  <si>
+    <t>Intergraph SmartPlant</t>
+  </si>
+  <si>
+    <t>MDM</t>
+  </si>
+  <si>
+    <t>Oracle-Energy/Utilities</t>
+  </si>
+  <si>
+    <t>Talend ETL</t>
+  </si>
+  <si>
+    <t>SnapLogic</t>
+  </si>
+  <si>
+    <t>Angular2</t>
+  </si>
+  <si>
+    <t>Embedded Automotive Testing</t>
+  </si>
+  <si>
+    <t>HTML5</t>
+  </si>
+  <si>
+    <t>Ionic</t>
+  </si>
+  <si>
+    <t>Mobile Device Management</t>
+  </si>
+  <si>
+    <t>OpenLink Endur</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>SAP ABAP</t>
+  </si>
+  <si>
+    <t>SAP Mobile Platform</t>
+  </si>
+  <si>
+    <t>APIGEE</t>
+  </si>
+  <si>
+    <t>AVS</t>
+  </si>
+  <si>
+    <t>Coupa</t>
+  </si>
+  <si>
+    <t>Custom development</t>
+  </si>
+  <si>
+    <t>Custom Java</t>
+  </si>
+  <si>
+    <t>Demandware</t>
+  </si>
+  <si>
+    <t>e- Learning Tools (STT/Lectoral)</t>
+  </si>
+  <si>
+    <t>Google  Cloud Platform</t>
+  </si>
+  <si>
+    <t>Google Apps  Script</t>
+  </si>
+  <si>
+    <t>Google Search Appliance</t>
+  </si>
+  <si>
+    <t>HP Quality Center Rational Application</t>
+  </si>
+  <si>
+    <t>JDA – Warehouse Management</t>
+  </si>
+  <si>
+    <t>Legacy Application - Visual Basic</t>
+  </si>
+  <si>
+    <t>Microsoft Exchange</t>
+  </si>
+  <si>
+    <t>Microsoft Sharepoint</t>
+  </si>
+  <si>
+    <t>MS Office Application</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Oracle CC&amp;B</t>
+  </si>
+  <si>
+    <t>Oracle RODOD</t>
+  </si>
+  <si>
+    <t>SaaS (Kronos)</t>
+  </si>
+  <si>
+    <t>Salesforce</t>
+  </si>
+  <si>
+    <t>ServiceNow</t>
+  </si>
+  <si>
+    <t>Talend</t>
+  </si>
+  <si>
+    <t>Weblogic</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Magento</t>
+  </si>
+  <si>
+    <t>Oracle HCM Cloud</t>
+  </si>
+  <si>
+    <t>Oracle Hyperion Planning/Financial Reporting</t>
+  </si>
+  <si>
+    <t>ServiceMax</t>
+  </si>
+  <si>
+    <t>UNIX</t>
+  </si>
+  <si>
+    <t>Dell Boomi</t>
+  </si>
+  <si>
+    <t>Analytics</t>
+  </si>
+  <si>
+    <t>Interactive</t>
+  </si>
+  <si>
+    <t>LoanIQ</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>DPM</t>
+  </si>
+  <si>
+    <t>Predix</t>
+  </si>
+  <si>
+    <t>Quest</t>
+  </si>
+  <si>
+    <t>SCCM</t>
+  </si>
+  <si>
+    <t>SCOM</t>
+  </si>
+  <si>
+    <t>Shell Script</t>
+  </si>
+  <si>
+    <t>Concur</t>
+  </si>
+  <si>
+    <t>JDA</t>
+  </si>
+  <si>
+    <t>Oracle Agile PLM</t>
+  </si>
+  <si>
+    <t>Oracle CX - Oracle CPQ Cloud</t>
+  </si>
+  <si>
+    <t>Oracle CX - Oracle Marketing Cloud</t>
+  </si>
+  <si>
+    <t>Oracle CX-Oracle Sal</t>
+  </si>
+  <si>
+    <t>Oracle CX-Oracle Ser</t>
+  </si>
+  <si>
+    <t>Oracle E-Business Suite</t>
+  </si>
+  <si>
+    <t>Oracle ERP Cloud</t>
+  </si>
+  <si>
+    <t>Oracle Hyperion</t>
+  </si>
+  <si>
+    <t>Oracle Primavera</t>
+  </si>
+  <si>
+    <t>Oracle Transportation Management</t>
+  </si>
+  <si>
+    <t>SAP Cloud for Customer</t>
+  </si>
+  <si>
+    <t>SAP Fieldglass</t>
+  </si>
+  <si>
+    <t>SAP Integrated Business Planning</t>
+  </si>
+  <si>
+    <t>PIE</t>
+  </si>
+  <si>
+    <t>Pinpoint</t>
+  </si>
+  <si>
+    <t>DWH</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>Myriad</t>
+  </si>
+  <si>
+    <t>BODS</t>
+  </si>
+  <si>
+    <t>OTIS</t>
+  </si>
+  <si>
+    <t>EWS</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Web.Net</t>
+  </si>
+  <si>
+    <t>Ab Initio</t>
+  </si>
+  <si>
+    <t>ARIBA</t>
+  </si>
+  <si>
+    <t>Microsoft Office</t>
+  </si>
+  <si>
+    <t>Informix</t>
+  </si>
+  <si>
+    <t>DFM Lite</t>
+  </si>
+  <si>
+    <t>Field OCR</t>
+  </si>
+  <si>
+    <t>ATCAT &amp; APC</t>
+  </si>
+  <si>
+    <t>Siebel</t>
+  </si>
+  <si>
+    <t>Blue Prism</t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>Testing and RPA</t>
+  </si>
+  <si>
+    <t>Sailpoint</t>
+  </si>
+  <si>
+    <t>Cloudera</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>ETL/Python/SQL</t>
+  </si>
+  <si>
+    <t>PHP/REACT.js</t>
+  </si>
+  <si>
+    <t>WorkForce Software</t>
+  </si>
+  <si>
+    <t>PragmaCAD</t>
+  </si>
+  <si>
+    <t>PragmaField AssetSuite</t>
+  </si>
+  <si>
+    <t>Openstack</t>
+  </si>
+  <si>
+    <t>IBM DAtaPower</t>
+  </si>
+  <si>
+    <t>IBM WTX</t>
+  </si>
+  <si>
+    <t>Apigee</t>
+  </si>
+  <si>
+    <t>Splunk</t>
+  </si>
+  <si>
+    <t>UiPath</t>
+  </si>
+  <si>
+    <t>ARIS Process Design Tools</t>
+  </si>
+  <si>
+    <t>HP UFT</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>SFSF (Success Factors Success Factors)</t>
+  </si>
+  <si>
+    <t>Digital-Other</t>
+  </si>
+  <si>
+    <t>Oracle Eloqua</t>
+  </si>
+  <si>
+    <t>Oracle Cloud</t>
+  </si>
+  <si>
+    <t>Intershop</t>
+  </si>
+  <si>
+    <t>IBM Sterling OMS</t>
+  </si>
+  <si>
+    <t>RPA and Automation Anywhere</t>
+  </si>
+  <si>
+    <t>SAP Hybris Ecommerce</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Ansible</t>
+  </si>
+  <si>
+    <t>Elastic Path</t>
+  </si>
+  <si>
+    <t>Test &amp; Defect</t>
+  </si>
+  <si>
+    <t>Operate</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Value/Business Case</t>
+  </si>
+  <si>
+    <t>Deliverables</t>
+  </si>
+  <si>
+    <t>Change Control</t>
+  </si>
+  <si>
+    <t>Planning/Estimating</t>
+  </si>
+  <si>
+    <t>Management/Governance</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Resourcing/Staffing</t>
+  </si>
+  <si>
+    <t>Reporting/Analytics</t>
+  </si>
+  <si>
+    <t>Knowledge/Assets</t>
+  </si>
+  <si>
+    <t>Training/Enablement</t>
+  </si>
+  <si>
+    <t>Non-Functional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated By </t>
+  </si>
+  <si>
+    <t>IdentifiedBy</t>
+  </si>
+  <si>
+    <t>StateUId</t>
+  </si>
+  <si>
+    <t>CategoryUId</t>
+  </si>
+  <si>
+    <t>RequiresAttentionUId</t>
+  </si>
+  <si>
+    <t>CompletedOn</t>
+  </si>
+  <si>
+    <t>This is the Mywizard user account that last modified the entity in the MyWizard data fabric.</t>
+  </si>
+  <si>
+    <t>External Id : Entity Id created in the tool</t>
+  </si>
+  <si>
+    <t>Url of the Entity in external tool Instance</t>
+  </si>
+  <si>
+    <t>Title of the entity</t>
+  </si>
+  <si>
+    <t>Detailed Description of the entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MyWizard user IDs who have been assigned to the entity 
 Technical attribute mapping as below
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Indicate name of the person who identified/raised/requested the entity. Default will be the user logged in</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This field defines a hierarchy of structure to whom the entity can be escalated to.
-This should be mapped to escalation levels defined in the external tools.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This field defines a hierarchy of structure to whom the entity can be categored to.
-This should be mapped to categories defined in the external tools.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Applicable to all cost attribute values/ Currency of the attribute</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South African rand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The type of relationship that this object has  entities in the data fabric (corresponding to the entity at the same position in the Linked[Entities] array attribute).</x:t>
-  </x:si>
-  <x:si>
-    <x:t>This is the field where a user can comment/ add a remark</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Features].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Tasks].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Defects].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Impediments].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Issues].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Risks].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Deliverables].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Epics].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Epics].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Features].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[UserStories].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[UserStories].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Tasks].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Defects].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Impediments].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Issues].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Risks].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Deliverables].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUAT1-1467</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://xyz.accenture.com/browse/PUAT1-1467</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abc.d.xyz@mywizard.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-02-04T12:47:53Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-02-04T12:49:55Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Epic1,Epic2;Story1,Story2;Feature2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Version</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coulmns auto populated are multivalue fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>All Time should be of  UTC format (24 hour format).</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Identified By/Identified By ID (Only for Action)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unique Identifier, Internal Audit Field auto Populated</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Created On</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Modified On</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Start On (Committed)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CommitedStarton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Close On (Committed)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CommitedEndon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Start On (Forecast)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TargetStartOn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Close On (Forecast)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TargetEndOn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Start On (Actual)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Starton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Close On (Actual)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SeverityUId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the degree of business impact that the entity can have.
-Should be mapped with the source Severity value from the external tool.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Identified On</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Category(Action entity) - from CDM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>All</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Note :</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Priority ,Type and other multi value should be flown as per the client native value</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20/8/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Added "Action" entity </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rajshree Raj</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Updated Read me section for "Action" entity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25/8/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Identified By ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ManagementAttention</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contractual</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Actions].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Actions].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Iterations].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[BPH].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[BPH].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Parent;Child;Related</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Iterations].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Action</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">API </x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActionExternalId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GUID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActionExternalUrl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alphanumeric</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DateTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value list</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Currency </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">CurrencyUId </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value list (will go under Global list)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Internal Reviewer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unique Identifier</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Internal reviewer of the Entity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>External Reviewer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Internal reviewer of the Entity in the external tool</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Boolean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flag to denote if the entity is contractual or not
+</t>
+  </si>
+  <si>
+    <t>Indicate name of the person who identified/raised/requested the entity. Default will be the user logged in</t>
+  </si>
+  <si>
+    <t>This field defines a hierarchy of structure to whom the entity can be escalated to.
+This should be mapped to escalation levels defined in the external tools.</t>
+  </si>
+  <si>
+    <t>This field defines a hierarchy of structure to whom the entity can be categored to.
+This should be mapped to categories defined in the external tools.</t>
+  </si>
+  <si>
+    <t>Applicable to all cost attribute values/ Currency of the attribute</t>
+  </si>
+  <si>
+    <t>South African rand</t>
+  </si>
+  <si>
+    <t>The type of relationship that this object has  entities in the data fabric (corresponding to the entity at the same position in the Linked[Entities] array attribute).</t>
+  </si>
+  <si>
+    <t>This is the field where a user can comment/ add a remark</t>
+  </si>
+  <si>
+    <t>Linked[Features].Relationship</t>
+  </si>
+  <si>
+    <t>Linked[Tasks].Relationship</t>
+  </si>
+  <si>
+    <t>Linked[Defects].Relationship</t>
+  </si>
+  <si>
+    <t>Linked[Impediments].Relationship</t>
+  </si>
+  <si>
+    <t>Linked[Issues].Relationship</t>
+  </si>
+  <si>
+    <t>Linked[Risks].Relationship</t>
+  </si>
+  <si>
+    <t>Linked[Deliverables].Relationship</t>
+  </si>
+  <si>
+    <t>Linked[Epics].ID</t>
+  </si>
+  <si>
+    <t>Linked[Epics].Relationship</t>
+  </si>
+  <si>
+    <t>Linked[Features].ID</t>
+  </si>
+  <si>
+    <t>Linked[UserStories].ID</t>
+  </si>
+  <si>
+    <t>Linked[UserStories].Relationship</t>
+  </si>
+  <si>
+    <t>Linked[Tasks].ID</t>
+  </si>
+  <si>
+    <t>Linked[Defects].ID</t>
+  </si>
+  <si>
+    <t>Linked[Impediments].ID</t>
+  </si>
+  <si>
+    <t>Linked[Issues].ID</t>
+  </si>
+  <si>
+    <t>Linked[Risks].ID</t>
+  </si>
+  <si>
+    <t>Linked[Deliverables].ID</t>
+  </si>
+  <si>
+    <t>https://xyz.accenture.com/browse/PUAT1-1467</t>
+  </si>
+  <si>
+    <t>abc.d.xyz@mywizard.com</t>
+  </si>
+  <si>
+    <t>2020-02-04T12:47:53Z</t>
+  </si>
+  <si>
+    <t>2020-02-04T12:49:55Z</t>
+  </si>
+  <si>
+    <t>Epic1,Epic2;Story1,Story2;Feature2</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Coulmns auto populated are multivalue fields</t>
+  </si>
+  <si>
+    <t>All Time should be of  UTC format (24 hour format).</t>
+  </si>
+  <si>
+    <t>Identified By/Identified By ID (Only for Action)</t>
+  </si>
+  <si>
+    <t>Unique Identifier, Internal Audit Field auto Populated</t>
+  </si>
+  <si>
+    <t>Created On</t>
+  </si>
+  <si>
+    <t>Modified On</t>
+  </si>
+  <si>
+    <t>Start On (Committed)</t>
+  </si>
+  <si>
+    <t>CommitedStarton</t>
+  </si>
+  <si>
+    <t>Close On (Committed)</t>
+  </si>
+  <si>
+    <t>CommitedEndon</t>
+  </si>
+  <si>
+    <t>Start On (Forecast)</t>
+  </si>
+  <si>
+    <t>TargetStartOn</t>
+  </si>
+  <si>
+    <t>Close On (Forecast)</t>
+  </si>
+  <si>
+    <t>TargetEndOn</t>
+  </si>
+  <si>
+    <t>Start On (Actual)</t>
+  </si>
+  <si>
+    <t>Starton</t>
+  </si>
+  <si>
+    <t>Close On (Actual)</t>
+  </si>
+  <si>
+    <t>SeverityUId</t>
+  </si>
+  <si>
+    <t>the degree of business impact that the entity can have.
+Should be mapped with the source Severity value from the external tool.</t>
+  </si>
+  <si>
+    <t>Identified On</t>
+  </si>
+  <si>
+    <t>Category(Action entity) - from CDM</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Note :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Priority ,Type and other multi value should be flown as per the client native value</t>
+  </si>
+  <si>
+    <t>20/8/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added "Action" entity </t>
+  </si>
+  <si>
+    <t>Rajshree Raj</t>
+  </si>
+  <si>
+    <t>Updated Read me section for "Action" entity</t>
+  </si>
+  <si>
+    <t>25/8/2020</t>
+  </si>
+  <si>
+    <t>Identified By ID</t>
+  </si>
+  <si>
+    <t>ManagementAttention</t>
+  </si>
+  <si>
+    <t>Contractual</t>
+  </si>
+  <si>
+    <t>Linked[Actions].ID</t>
+  </si>
+  <si>
+    <t>Linked[Actions].Relationship</t>
+  </si>
+  <si>
+    <t>Linked[Iterations].Relationship</t>
+  </si>
+  <si>
+    <t>Linked[BPH].ID</t>
+  </si>
+  <si>
+    <t>Linked[BPH].Relationship</t>
+  </si>
+  <si>
+    <t>Parent;Child;Related</t>
+  </si>
+  <si>
+    <t>Linked[Iterations].ID</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API </t>
+  </si>
+  <si>
+    <t>ActionExternalId</t>
+  </si>
+  <si>
+    <t>GUID</t>
+  </si>
+  <si>
+    <t>ActionExternalUrl</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Alphanumeric</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>Value list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CurrencyUId </t>
+  </si>
+  <si>
+    <t>Value list (will go under Global list)</t>
+  </si>
+  <si>
+    <t>Internal Reviewer</t>
+  </si>
+  <si>
+    <t>Unique Identifier</t>
+  </si>
+  <si>
+    <t>Internal reviewer of the Entity</t>
+  </si>
+  <si>
+    <t>External Reviewer</t>
+  </si>
+  <si>
+    <t>Internal reviewer of the Entity in the external tool</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Flag to denote if the entity is contractual or not
 Yes
 No
-Default: No</x:t>
-  </x:si>
-  <x:si>
-    <x:t>v1.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Updated Attributes in the "Action" sheet and Read me section  and Actual Close Date has been mapped to "ActualEndOn"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17/9/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>v2.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Internal Reviewer,External Reviewer,ManagementAttention,Contractual,AssignedToUser has been added as per the Bhagyashree's comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Iterationst].ID,	Linked[Iterations].Relationship has been added  and removed the column Linked[IterationsSprint].ID,Linked[IterationsSprint].Relationship,Linked[IterationsRelease].ID,Linked[IterationsRelease].Relationship from the sheet as per the discussion between Mohammed and Akanksha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Yes","No" drop down has been introduced for ManagementAttention and Contractual as these fields are Boolean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29/9/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.2.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Association for "Action" and "Decision" has  been included </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flag to denote as below
+Default: No</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>Updated Attributes in the "Action" sheet and Read me section  and Actual Close Date has been mapped to "ActualEndOn"</t>
+  </si>
+  <si>
+    <t>17/9/2020</t>
+  </si>
+  <si>
+    <t>v2.0</t>
+  </si>
+  <si>
+    <t>Internal Reviewer,External Reviewer,ManagementAttention,Contractual,AssignedToUser has been added as per the Bhagyashree's comment</t>
+  </si>
+  <si>
+    <t>Linked[Iterationst].ID,	Linked[Iterations].Relationship has been added  and removed the column Linked[IterationsSprint].ID,Linked[IterationsSprint].Relationship,Linked[IterationsRelease].ID,Linked[IterationsRelease].Relationship from the sheet as per the discussion between Mohammed and Akanksha</t>
+  </si>
+  <si>
+    <t>"Yes","No" drop down has been introduced for ManagementAttention and Contractual as these fields are Boolean</t>
+  </si>
+  <si>
+    <t>29/9/2020</t>
+  </si>
+  <si>
+    <t>2.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Association for "Action" and "Decision" has  been included </t>
+  </si>
+  <si>
+    <t>Flag to denote as below
 Yes
 No
-Default: No</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Removed "Actual Close Date" from the Readme as well as from the template as advised by Akanksha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Reference" Column has been removed as this fields not retrived at API response (Bug:986556)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Management Attention has been mentioned as Boolean in Read me (Bug 985622)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Identifiedon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Created On [External]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Modified On [External]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CreatedAtSourceOn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ModifiedAtSourceOn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date on which entity was modified in the external tool</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date on which entity was created in the external tool</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">External Reviewer(s) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Internal Reviewer(s)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Internal Reviewer(s) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Decisions].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Decisions].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delegated To</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DelegatedTo</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">MyWizard users who is working on the entity. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Delegated To" field has been added in the  template (
-BUG 994567)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Created On" and "Modified On" has been updated as  Created On [External] and Modified On [External] as per the discussion with Mohammed since "Created On" and "Modified On" is not available in the database.(Bug 994302)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Decision " association has been added to the template (
-BUG 994522)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Identifiedon spelling has been corrected (
-BUG 993633)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Internal Revieiwer" and "External Reviewer" column names has a "[]" at the end of it which is not required has been removed (
-BUG 991983)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>External Reviewer(s)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Release].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Release].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Initiative].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Initiative].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Sprint].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Sprint].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Action Check</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Action Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Added Linked[Release].ID, Linked[Release].Relationship, Linked[Initiative].ID, Linked[Initiative].Relationship for bug 995924</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Preeti Sobti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Sprint].ID, Linked[Sprint].Relationship for bug 995924</x:t>
-  </x:si>
-  <x:si>
-    <x:t>State of an entity. 
-This should be mapped to the source state field values. Although this is not mandatory at myWizard end; user needs to select a value, so that the Entity is available on consuming App's for display and computations.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AssignedAtSourceToUser</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Technical mapped attribute for "Owner" has been changed to AssignedAtSourceToUser</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rimpa Ghosh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>myWizard SI 3.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Milestone].ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Linked[Milestone].Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TeamArea Id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TeamArea Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Either one should be mandatory to associate and should be with same ProductInstance that data being uploaded with</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Attributes changed : Source Created By, Source Modified By</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Source Created By</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CreatedAtSourceByUser</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Source Modified By</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ModifiedAtSourceByUser</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Related</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phase</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ListOfObject</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phase and Workstream has been included for "Issue","Risk", "Bug", "Decision" and "Action"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahendroo Achla</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Actual Start date of the Entity
-Date Time and and date format &amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The date on which the enitity was identified/requested/raised.
-Date Time and and date format &amp; Date Time and  date formula must be YYYY-MM-DDTHH:MM:SSZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Actual Finish date of the Entity/
+Default: No</t>
+  </si>
+  <si>
+    <t>Removed "Actual Close Date" from the Readme as well as from the template as advised by Akanksha</t>
+  </si>
+  <si>
+    <t>"Reference" Column has been removed as this fields not retrived at API response (Bug:986556)</t>
+  </si>
+  <si>
+    <t>Management Attention has been mentioned as Boolean in Read me (Bug 985622)</t>
+  </si>
+  <si>
+    <t>Identifiedon</t>
+  </si>
+  <si>
+    <t>Created On [External]</t>
+  </si>
+  <si>
+    <t>Modified On [External]</t>
+  </si>
+  <si>
+    <t>CreatedAtSourceOn</t>
+  </si>
+  <si>
+    <t>ModifiedAtSourceOn</t>
+  </si>
+  <si>
+    <t>Date on which entity was modified in the external tool</t>
+  </si>
+  <si>
+    <t>Date on which entity was created in the external tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Reviewer(s) </t>
+  </si>
+  <si>
+    <t>Internal Reviewer(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Reviewer(s) </t>
+  </si>
+  <si>
+    <t>Linked[Decisions].ID</t>
+  </si>
+  <si>
+    <t>Linked[Decisions].Relationship</t>
+  </si>
+  <si>
+    <t>Delegated To</t>
+  </si>
+  <si>
+    <t>DelegatedTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MyWizard users who is working on the entity. </t>
+  </si>
+  <si>
+    <t>"Delegated To" field has been added in the  template (
+BUG 994567)</t>
+  </si>
+  <si>
+    <t>"Created On" and "Modified On" has been updated as  Created On [External] and Modified On [External] as per the discussion with Mohammed since "Created On" and "Modified On" is not available in the database.(Bug 994302)</t>
+  </si>
+  <si>
+    <t>"Decision " association has been added to the template (
+BUG 994522)</t>
+  </si>
+  <si>
+    <t>Identifiedon spelling has been corrected (
+BUG 993633)</t>
+  </si>
+  <si>
+    <t>"Internal Revieiwer" and "External Reviewer" column names has a "[]" at the end of it which is not required has been removed (
+BUG 991983)</t>
+  </si>
+  <si>
+    <t>External Reviewer(s)</t>
+  </si>
+  <si>
+    <t>Linked[Release].ID</t>
+  </si>
+  <si>
+    <t>Linked[Release].Relationship</t>
+  </si>
+  <si>
+    <t>Linked[Initiative].ID</t>
+  </si>
+  <si>
+    <t>Linked[Initiative].Relationship</t>
+  </si>
+  <si>
+    <t>Linked[Sprint].ID</t>
+  </si>
+  <si>
+    <t>Linked[Sprint].Relationship</t>
+  </si>
+  <si>
+    <t>Action Description</t>
+  </si>
+  <si>
+    <t>Added Linked[Release].ID, Linked[Release].Relationship, Linked[Initiative].ID, Linked[Initiative].Relationship for bug 995924</t>
+  </si>
+  <si>
+    <t>Preeti Sobti</t>
+  </si>
+  <si>
+    <t>Linked[Sprint].ID, Linked[Sprint].Relationship for bug 995924</t>
+  </si>
+  <si>
+    <t>State of an entity. 
+This should be mapped to the source state field values. Although this is not mandatory at myWizard end; user needs to select a value, so that the Entity is available on consuming App's for display and computations.</t>
+  </si>
+  <si>
+    <t>AssignedAtSourceToUser</t>
+  </si>
+  <si>
+    <t>Technical mapped attribute for "Owner" has been changed to AssignedAtSourceToUser</t>
+  </si>
+  <si>
+    <t>Rimpa Ghosh</t>
+  </si>
+  <si>
+    <t>myWizard SI 3.0</t>
+  </si>
+  <si>
+    <t>Linked[Milestone].ID</t>
+  </si>
+  <si>
+    <t>Linked[Milestone].Relationship</t>
+  </si>
+  <si>
+    <t>TeamArea Id</t>
+  </si>
+  <si>
+    <t>TeamArea Name</t>
+  </si>
+  <si>
+    <t>Either one should be mandatory to associate and should be with same ProductInstance that data being uploaded with</t>
+  </si>
+  <si>
+    <t>Attributes changed : Source Created By, Source Modified By</t>
+  </si>
+  <si>
+    <t>Source Created By</t>
+  </si>
+  <si>
+    <t>CreatedAtSourceByUser</t>
+  </si>
+  <si>
+    <t>Source Modified By</t>
+  </si>
+  <si>
+    <t>ModifiedAtSourceByUser</t>
+  </si>
+  <si>
+    <t>Related</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>ListOfObject</t>
+  </si>
+  <si>
+    <t>Phase and Workstream has been included for "Issue","Risk", "Bug", "Decision" and "Action"</t>
+  </si>
+  <si>
+    <t>Mahendroo Achla</t>
+  </si>
+  <si>
+    <t>Actual Start date of the Entity
+Date Time and and date format &amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>The date on which the enitity was identified/requested/raised.
+Date Time and and date format &amp; Date Time and  date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>Actual Finish date of the Entity/
 Date on which the entity was actually marked as Closed
-Date Time and and date format&amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Committed or Baseline Start date of the entity
-Date Time and and date format &amp; Date Time and date formula  must be YYYY-MM-DDTHH:MM:SSZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Committed or Baseline Finish date of the entity
-Date Time and date format &amp; Date Time and date formula  must be YYYY-MM-DDTHH:MM:SSZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Forecasted or Planned finish date/
+Date Time and and date format&amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>Committed or Baseline Start date of the entity
+Date Time and and date format &amp; Date Time and date formula  must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>Committed or Baseline Finish date of the entity
+Date Time and date format &amp; Date Time and date formula  must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>Forecasted or Planned finish date/
 Date on which we plan to close the entity
-Date Time and and date format &amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Forecasted or Planned start date of the entity
-Date Time and and date format &amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>updated description for all the date and time attributes to "&amp; Date Time and and date formula"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Achla Mahendroo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>All datetime should be of  format &amp; formula "YYYY-MM-DDTHH:MM:SSZ".</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOM-118871</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Action_AutomationData_GenericUploader</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021-08-02T05:05:03Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOM-118871</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Action_AutomationData_GenericUploader</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021-08-02T06:12:57Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOM-118871</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Action_AutomationData_GenericUploader</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021-08-02T06:20:04Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Security</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOM-118871</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Action_AutomationData_GenericUploader</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021-08-02T08:22:23Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Security_AutomationData</x:t>
-  </x:si>
-</x:sst>
+Date Time and and date format &amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>Forecasted or Planned start date of the entity
+Date Time and and date format &amp; Date Time and date formula must be YYYY-MM-DDTHH:MM:SSZ</t>
+  </si>
+  <si>
+    <t>updated description for all the date and time attributes to "&amp; Date Time and and date formula"</t>
+  </si>
+  <si>
+    <t>Achla Mahendroo</t>
+  </si>
+  <si>
+    <t>All datetime should be of  format &amp; formula "YYYY-MM-DDTHH:MM:SSZ".</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>2021-08-02T06:12:57Z</t>
+  </si>
+  <si>
+    <t>BOM-118871</t>
+  </si>
+  <si>
+    <t>Action_AutomationData_GenericUploader</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>2021-08-02T08:22:23Z</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Security_AutomationData</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Very Low</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Analyze</t>
+  </si>
+  <si>
+    <t>On Hold</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Detailed Technical Design</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Component Test</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Assembly Test</t>
+  </si>
+  <si>
+    <t>Integration Test</t>
+  </si>
+  <si>
+    <t>Product Test</t>
+  </si>
+  <si>
+    <t>Performance and Service Level Test</t>
+  </si>
+  <si>
+    <t>User Acceptance Test</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>BOM-77679</t>
+  </si>
+  <si>
+    <t>2021-08-13T05:33:24Z</t>
+  </si>
+  <si>
+    <t>testuser01art@ds.dev.accenture.com</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3123,7 +3162,7 @@
         <v>497</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>28</v>
@@ -3134,16 +3173,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>567</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3151,16 +3190,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>569</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3168,16 +3207,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -3185,16 +3224,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
@@ -3202,16 +3241,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>601</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3219,17 +3258,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>606</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3237,17 +3276,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3255,16 +3294,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>606</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3272,17 +3311,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C10" s="18">
         <v>43992</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3290,17 +3329,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C11" s="78">
         <v>44022</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E11" s="79"/>
       <c r="F11" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -3308,17 +3347,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C12" s="18">
         <v>44022</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3326,17 +3365,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C13" s="18">
         <v>44054</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3344,17 +3383,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C14" s="18">
         <v>44054</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3362,17 +3401,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C15" s="18">
         <v>44054</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -3380,17 +3419,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C16" s="18">
         <v>44054</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3398,17 +3437,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C17" s="18">
         <v>44120</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3416,17 +3455,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C18" s="18">
         <v>44125</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3434,17 +3473,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C19" s="18">
         <v>44169</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3452,13 +3491,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C20" s="90">
         <v>44263</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E20" s="91"/>
       <c r="F20" s="91"/>
@@ -3468,13 +3507,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C21" s="18">
         <v>44363</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -3484,13 +3523,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C22" s="95">
         <v>44403</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -3528,7 +3567,7 @@
         <v>46</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3551,7 +3590,7 @@
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="40" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E3" s="66" t="s">
         <v>49</v>
@@ -3588,7 +3627,7 @@
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
       <c r="D6" s="48" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E6" s="66" t="s">
         <v>49</v>
@@ -3601,7 +3640,7 @@
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
       <c r="D7" s="48" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E7" s="66" t="s">
         <v>49</v>
@@ -3609,12 +3648,12 @@
     </row>
     <row r="8" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B8" s="49"/>
       <c r="C8" s="68"/>
       <c r="D8" s="69" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E8" s="66" t="s">
         <v>49</v>
@@ -3628,7 +3667,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>1</v>
@@ -3640,10 +3679,10 @@
         <v>62</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>582</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>583</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>504</v>
@@ -3657,10 +3696,10 @@
         <v>64</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>584</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>585</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>505</v>
@@ -3677,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>506</v>
@@ -3694,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>507</v>
@@ -3711,7 +3750,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>515</v>
@@ -3725,10 +3764,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>508</v>
@@ -3739,16 +3778,16 @@
     </row>
     <row r="16" spans="1:5" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
+        <v>624</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>625</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="C16" s="33" t="s">
+        <v>585</v>
+      </c>
+      <c r="D16" s="33" t="s">
         <v>626</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>627</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>49</v>
@@ -3756,13 +3795,13 @@
     </row>
     <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>498</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>509</v>
@@ -3773,16 +3812,16 @@
     </row>
     <row r="18" spans="1:5" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E18" s="85" t="s">
         <v>49</v>
@@ -3790,13 +3829,13 @@
     </row>
     <row r="19" spans="1:5" s="24" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D19" s="84" t="s">
         <v>503</v>
@@ -3807,16 +3846,16 @@
     </row>
     <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D20" s="80" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E20" s="66" t="s">
         <v>49</v>
@@ -3824,16 +3863,16 @@
     </row>
     <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B21" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="D21" s="80" t="s">
         <v>617</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>587</v>
-      </c>
-      <c r="D21" s="80" t="s">
-        <v>618</v>
       </c>
       <c r="E21" s="66" t="s">
         <v>49</v>
@@ -3847,10 +3886,10 @@
         <v>499</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E22" s="66" t="s">
         <v>49</v>
@@ -3858,16 +3897,16 @@
     </row>
     <row r="23" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
+        <v>546</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>547</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>548</v>
-      </c>
       <c r="C23" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E23" s="66" t="s">
         <v>49</v>
@@ -3875,16 +3914,16 @@
     </row>
     <row r="24" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" s="55" t="s">
+        <v>548</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>550</v>
-      </c>
       <c r="C24" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E24" s="66" t="s">
         <v>49</v>
@@ -3892,16 +3931,16 @@
     </row>
     <row r="25" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="55" t="s">
+        <v>550</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>552</v>
-      </c>
       <c r="C25" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E25" s="66" t="s">
         <v>49</v>
@@ -3909,16 +3948,16 @@
     </row>
     <row r="26" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
+        <v>552</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>554</v>
-      </c>
       <c r="C26" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E26" s="66" t="s">
         <v>49</v>
@@ -3926,16 +3965,16 @@
     </row>
     <row r="27" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
+        <v>554</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>556</v>
-      </c>
       <c r="C27" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E27" s="66" t="s">
         <v>49</v>
@@ -3943,16 +3982,16 @@
     </row>
     <row r="28" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>502</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E28" s="66" t="s">
         <v>49</v>
@@ -3963,13 +4002,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="D29" s="33" t="s">
         <v>558</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>588</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>559</v>
       </c>
       <c r="E29" s="66" t="s">
         <v>49</v>
@@ -3983,7 +4022,7 @@
         <v>501</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>510</v>
@@ -4000,7 +4039,7 @@
         <v>500</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>511</v>
@@ -4011,13 +4050,13 @@
     </row>
     <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A32" s="55" t="s">
+        <v>588</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="C32" s="33" t="s">
         <v>590</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>591</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>512</v>
@@ -4026,16 +4065,16 @@
     </row>
     <row r="33" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A33" s="55" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E33" s="66" t="s">
         <v>49</v>
@@ -4043,16 +4082,16 @@
     </row>
     <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B34" s="33" t="s">
+        <v>591</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="D34" s="71" t="s">
         <v>593</v>
-      </c>
-      <c r="D34" s="71" t="s">
-        <v>594</v>
       </c>
       <c r="E34" s="66" t="s">
         <v>49</v>
@@ -4060,16 +4099,16 @@
     </row>
     <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B35" s="33" t="s">
+        <v>594</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="D35" s="71" t="s">
         <v>595</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>593</v>
-      </c>
-      <c r="D35" s="71" t="s">
-        <v>596</v>
       </c>
       <c r="E35" s="66" t="s">
         <v>49</v>
@@ -4077,14 +4116,14 @@
     </row>
     <row r="36" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A36" s="55" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E36" s="66" t="s">
         <v>49</v>
@@ -4092,14 +4131,14 @@
     </row>
     <row r="37" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="72" t="s">
+        <v>596</v>
+      </c>
+      <c r="D37" s="33" t="s">
         <v>597</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>598</v>
       </c>
       <c r="E37" s="66" t="s">
         <v>49</v>
@@ -4107,12 +4146,12 @@
     </row>
     <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="87" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B38" s="84"/>
       <c r="C38" s="86"/>
       <c r="D38" s="96" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E38" s="85" t="s">
         <v>49</v>
@@ -4120,7 +4159,7 @@
     </row>
     <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="87" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B39" s="84"/>
       <c r="C39" s="86"/>
@@ -4131,13 +4170,13 @@
     </row>
     <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="94" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C40" s="86" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D40" s="93"/>
       <c r="E40" s="85" t="s">
@@ -4152,7 +4191,7 @@
         <v>21</v>
       </c>
       <c r="C41" s="86" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D41" s="93"/>
       <c r="E41" s="85" t="s">
@@ -4389,7 +4428,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C64" s="30"/>
       <c r="D64" s="48" t="s">
@@ -7194,7 +7233,7 @@
     </row>
     <row r="383" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A383" s="58" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B383" s="22"/>
       <c r="C383" s="22"/>
@@ -7203,7 +7242,7 @@
     <row r="384" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A384" s="22"/>
       <c r="B384" s="64" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C384" s="74"/>
       <c r="D384" s="22"/>
@@ -7366,656 +7405,673 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{BEF0B1EA-B5D2-4F2C-8109-5D8B719D8F3C}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:dimension ref="A1:BM2"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <x:selection activeCell="E2" sqref="E2"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:cols>
-    <x:col min="1" max="1" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
-    <x:col min="2" max="2" bestFit="true" customWidth="true" width="41.21875" collapsed="true"/>
-    <x:col min="3" max="4" bestFit="true" customWidth="true" width="23.21875" collapsed="true"/>
-    <x:col min="5" max="5" customWidth="true" style="22" width="23.21875" collapsed="true"/>
-    <x:col min="6" max="6" bestFit="true" customWidth="true" width="22.77734375" collapsed="true"/>
-    <x:col min="7" max="7" bestFit="true" customWidth="true" style="22" width="22.77734375" collapsed="true"/>
-    <x:col min="8" max="11" bestFit="true" customWidth="true" width="22.77734375" collapsed="true"/>
-    <x:col min="12" max="12" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
-    <x:col min="13" max="13" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <x:col min="14" max="16" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
-    <x:col min="17" max="17" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
-    <x:col min="18" max="18" bestFit="true" customWidth="true" width="17.21875" collapsed="true"/>
-    <x:col min="19" max="19" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
-    <x:col min="20" max="20" bestFit="true" customWidth="true" width="5.21875" collapsed="true"/>
-    <x:col min="21" max="21" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <x:col min="22" max="22" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
-    <x:col min="23" max="23" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <x:col min="24" max="24" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
-    <x:col min="25" max="25" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
-    <x:col min="26" max="26" bestFit="true" customWidth="true" width="19.77734375" collapsed="true"/>
-    <x:col min="27" max="27" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
-    <x:col min="28" max="31" customWidth="true" style="22" width="20.21875" collapsed="true"/>
-    <x:col min="32" max="32" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <x:col min="33" max="33" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
-    <x:col min="34" max="34" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
-    <x:col min="35" max="35" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <x:col min="36" max="36" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
-    <x:col min="37" max="37" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <x:col min="38" max="38" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
-    <x:col min="39" max="39" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <x:col min="40" max="40" bestFit="true" customWidth="true" width="53.6640625" collapsed="true"/>
-    <x:col min="41" max="41" bestFit="true" customWidth="true" width="53.21875" collapsed="true"/>
-    <x:col min="42" max="42" bestFit="true" customWidth="true" width="29.88671875" collapsed="true"/>
-    <x:col min="43" max="43" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
-    <x:col min="44" max="44" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <x:col min="45" max="45" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <x:col min="46" max="46" bestFit="true" customWidth="true" width="29.88671875" collapsed="true"/>
-    <x:col min="47" max="47" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <x:col min="48" max="48" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
-    <x:col min="49" max="49" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
-    <x:col min="50" max="50" bestFit="true" customWidth="true" style="22" width="17.88671875" collapsed="true"/>
-    <x:col min="51" max="51" bestFit="true" customWidth="true" style="22" width="26.6640625" collapsed="true"/>
-    <x:col min="52" max="52" bestFit="true" customWidth="true" width="24.88671875" collapsed="true"/>
-    <x:col min="53" max="53" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
-    <x:col min="54" max="54" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <x:col min="55" max="55" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <x:col min="56" max="56" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
-    <x:col min="57" max="57" bestFit="true" customWidth="true" width="23.109375" collapsed="true"/>
-    <x:col min="63" max="63" bestFit="true" customWidth="true" width="24.6640625" collapsed="true"/>
-    <x:col min="64" max="64" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
-    <x:col min="65" max="65" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:65" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="9" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B1" s="10" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C1" s="9" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D1" s="10" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E1" s="9" t="s">
-        <x:v>675</x:v>
-      </x:c>
-      <x:c r="F1" s="20" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G1" s="10" t="s">
-        <x:v>625</x:v>
-      </x:c>
-      <x:c r="H1" s="20" t="s">
-        <x:v>570</x:v>
-      </x:c>
-      <x:c r="I1" s="87" t="s">
-        <x:v>656</x:v>
-      </x:c>
-      <x:c r="J1" s="87" t="s">
-        <x:v>658</x:v>
-      </x:c>
-      <x:c r="K1" s="20" t="s">
-        <x:v>545</x:v>
-      </x:c>
-      <x:c r="L1" s="20" t="s">
-        <x:v>546</x:v>
-      </x:c>
-      <x:c r="M1" s="20" t="s">
-        <x:v>547</x:v>
-      </x:c>
-      <x:c r="N1" s="20" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="O1" s="20" t="s">
-        <x:v>555</x:v>
-      </x:c>
-      <x:c r="P1" s="20" t="s">
-        <x:v>549</x:v>
-      </x:c>
-      <x:c r="Q1" s="20" t="s">
-        <x:v>553</x:v>
-      </x:c>
-      <x:c r="R1" s="20" t="s">
-        <x:v>557</x:v>
-      </x:c>
-      <x:c r="S1" s="21" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="T1" s="21" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="U1" s="21" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="V1" s="21" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="W1" s="20" t="s">
-        <x:v>560</x:v>
-      </x:c>
-      <x:c r="X1" s="17" t="s">
-        <x:v>621</x:v>
-      </x:c>
-      <x:c r="Y1" s="17" t="s">
-        <x:v>633</x:v>
-      </x:c>
-      <x:c r="Z1" s="20" t="s">
-        <x:v>571</x:v>
-      </x:c>
-      <x:c r="AA1" s="20" t="s">
-        <x:v>572</x:v>
-      </x:c>
-      <x:c r="AB1" s="20" t="s">
-        <x:v>652</x:v>
-      </x:c>
-      <x:c r="AC1" s="20" t="s">
-        <x:v>653</x:v>
-      </x:c>
-      <x:c r="AD1" s="20" t="s">
-        <x:v>661</x:v>
-      </x:c>
-      <x:c r="AE1" s="20" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="AF1" s="8" t="s">
-        <x:v>523</x:v>
-      </x:c>
-      <x:c r="AG1" s="8" t="s">
-        <x:v>524</x:v>
-      </x:c>
-      <x:c r="AH1" s="8" t="s">
-        <x:v>525</x:v>
-      </x:c>
-      <x:c r="AI1" s="8" t="s">
-        <x:v>516</x:v>
-      </x:c>
-      <x:c r="AJ1" s="8" t="s">
-        <x:v>526</x:v>
-      </x:c>
-      <x:c r="AK1" s="8" t="s">
-        <x:v>527</x:v>
-      </x:c>
-      <x:c r="AL1" s="8" t="s">
-        <x:v>528</x:v>
-      </x:c>
-      <x:c r="AM1" s="8" t="s">
-        <x:v>517</x:v>
-      </x:c>
-      <x:c r="AN1" s="8" t="s">
-        <x:v>529</x:v>
-      </x:c>
-      <x:c r="AO1" s="8" t="s">
-        <x:v>518</x:v>
-      </x:c>
-      <x:c r="AP1" s="8" t="s">
-        <x:v>530</x:v>
-      </x:c>
-      <x:c r="AQ1" s="8" t="s">
-        <x:v>519</x:v>
-      </x:c>
-      <x:c r="AR1" s="8" t="s">
-        <x:v>531</x:v>
-      </x:c>
-      <x:c r="AS1" s="8" t="s">
-        <x:v>520</x:v>
-      </x:c>
-      <x:c r="AT1" s="8" t="s">
-        <x:v>532</x:v>
-      </x:c>
-      <x:c r="AU1" s="8" t="s">
-        <x:v>521</x:v>
-      </x:c>
-      <x:c r="AV1" s="8" t="s">
-        <x:v>573</x:v>
-      </x:c>
-      <x:c r="AW1" s="8" t="s">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="AX1" s="8" t="s">
-        <x:v>623</x:v>
-      </x:c>
-      <x:c r="AY1" s="8" t="s">
-        <x:v>624</x:v>
-      </x:c>
-      <x:c r="AZ1" s="8" t="s">
-        <x:v>533</x:v>
-      </x:c>
-      <x:c r="BA1" s="8" t="s">
-        <x:v>522</x:v>
-      </x:c>
-      <x:c r="BB1" s="8" t="s">
-        <x:v>579</x:v>
-      </x:c>
-      <x:c r="BC1" s="8" t="s">
-        <x:v>575</x:v>
-      </x:c>
-      <x:c r="BD1" s="8" t="s">
-        <x:v>576</x:v>
-      </x:c>
-      <x:c r="BE1" s="8" t="s">
-        <x:v>577</x:v>
-      </x:c>
-      <x:c r="BF1" s="8" t="s">
-        <x:v>634</x:v>
-      </x:c>
-      <x:c r="BG1" s="8" t="s">
-        <x:v>635</x:v>
-      </x:c>
-      <x:c r="BH1" s="8" t="s">
-        <x:v>636</x:v>
-      </x:c>
-      <x:c r="BI1" s="8" t="s">
-        <x:v>637</x:v>
-      </x:c>
-      <x:c r="BJ1" s="81" t="s">
-        <x:v>638</x:v>
-      </x:c>
-      <x:c r="BK1" s="81" t="s">
-        <x:v>639</x:v>
-      </x:c>
-      <x:c r="BL1" s="83" t="s">
-        <x:v>650</x:v>
-      </x:c>
-      <x:c r="BM1" s="83" t="s">
-        <x:v>651</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:65" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="12" t="s">
-        <x:v>688</x:v>
-      </x:c>
-      <x:c r="B2" s="16" t="s">
-        <x:v>535</x:v>
-      </x:c>
-      <x:c r="C2" s="12" t="s">
-        <x:v>689</x:v>
-      </x:c>
-      <x:c r="D2" s="12" t="s">
-        <x:v>641</x:v>
-      </x:c>
-      <x:c r="E2" s="12" t="s">
-        <x:v>690</x:v>
-      </x:c>
-      <x:c r="F2" s="16" t="s">
-        <x:v>536</x:v>
-      </x:c>
-      <x:c r="G2" s="12" t="s">
-        <x:v>536</x:v>
-      </x:c>
-      <x:c r="H2" s="16" t="s">
-        <x:v>536</x:v>
-      </x:c>
-      <x:c r="I2" s="16" t="s">
-        <x:v>536</x:v>
-      </x:c>
-      <x:c r="J2" s="16" t="s">
-        <x:v>536</x:v>
-      </x:c>
-      <x:c r="K2" s="11" t="s">
-        <x:v>537</x:v>
-      </x:c>
-      <x:c r="L2" s="11" t="s">
-        <x:v>681</x:v>
-      </x:c>
-      <x:c r="M2" s="11" t="s">
-        <x:v>691</x:v>
-      </x:c>
-      <x:c r="N2" s="11" t="s">
-        <x:v>537</x:v>
-      </x:c>
-      <x:c r="O2" s="11" t="s">
-        <x:v>538</x:v>
-      </x:c>
-      <x:c r="P2" s="11" t="s">
-        <x:v>538</x:v>
-      </x:c>
-      <x:c r="Q2" s="11" t="s">
-        <x:v>537</x:v>
-      </x:c>
-      <x:c r="R2" s="11" t="s">
-        <x:v>537</x:v>
-      </x:c>
-      <x:c r="S2" s="11"/>
-      <x:c r="T2" s="12"/>
-      <x:c r="U2" s="12"/>
-      <x:c r="V2" s="12"/>
-      <x:c r="W2" s="11" t="s">
-        <x:v>537</x:v>
-      </x:c>
-      <x:c r="Y2" s="12"/>
-      <x:c r="Z2" s="12"/>
-      <x:c r="AA2" s="12"/>
-      <x:c r="AB2" s="12"/>
-      <x:c r="AC2" s="12"/>
-      <x:c r="AD2" s="12" t="s">
-        <x:v>692</x:v>
-      </x:c>
-      <x:c r="AE2" s="12" t="s">
-        <x:v>693</x:v>
-      </x:c>
-      <x:c r="AF2" s="12" t="s">
-        <x:v>539</x:v>
-      </x:c>
-      <x:c r="AG2" s="12" t="s">
-        <x:v>578</x:v>
-      </x:c>
-      <x:c r="AI2" s="12"/>
-      <x:c r="AJ2" s="12"/>
-      <x:c r="AK2" s="12"/>
-      <x:c r="AL2" s="12"/>
-      <x:c r="AM2" s="12"/>
-      <x:c r="AN2" s="12"/>
-      <x:c r="AO2" s="12"/>
-      <x:c r="AP2" s="12"/>
-      <x:c r="AQ2" s="12"/>
-      <x:c r="AR2" s="12"/>
-      <x:c r="AS2" s="12"/>
-      <x:c r="AT2" s="12"/>
-      <x:c r="AU2" s="12"/>
-      <x:c r="AV2" s="12"/>
-      <x:c r="AW2" s="12"/>
-      <x:c r="AX2" s="12"/>
-      <x:c r="AY2" s="12"/>
-      <x:c r="AZ2" s="12"/>
-      <x:c r="BA2" s="12"/>
-      <x:c r="BB2" s="12"/>
-      <x:c r="BC2" s="12"/>
-      <x:c r="BD2" s="12"/>
-      <x:c r="BE2" s="12"/>
-    </x:row>
-  </x:sheetData>
-  <x:dataValidations>
-    <x:dataValidation type="list" allowBlank="0" showErrorMessage="1" errorTitle="Select valid value" sqref="E2:E1048576">
-      <x:formula1>"BOM"</x:formula1>
-    </x:dataValidation>
-    <x:dataValidation type="list" allowBlank="0" showErrorMessage="1" errorTitle="Select valid value" sqref="S2:S1048576">
-      <x:formula1>=DataValidation!$E$1:$E$7</x:formula1>
-    </x:dataValidation>
-    <x:dataValidation type="list" allowBlank="0" showErrorMessage="1" errorTitle="Select valid value" sqref="T2:T1048576">
-      <x:formula1>=DataValidation!$J$1:$J$6</x:formula1>
-    </x:dataValidation>
-    <x:dataValidation type="list" allowBlank="0" showErrorMessage="1" errorTitle="Select valid value" sqref="U2:U1048576">
-      <x:formula1>=DataValidation!$G$1:$G$6</x:formula1>
-    </x:dataValidation>
-    <x:dataValidation type="list" allowBlank="0" showErrorMessage="1" errorTitle="Select valid value" sqref="V2:V1048576">
-      <x:formula1>=DataValidation!$F$1:$F$25</x:formula1>
-    </x:dataValidation>
-    <x:dataValidation type="list" allowBlank="0" showErrorMessage="1" errorTitle="Select valid value" sqref="Z2:Z1048576">
-      <x:formula1>=DataValidation!$H$1:$H$2</x:formula1>
-    </x:dataValidation>
-    <x:dataValidation type="list" allowBlank="0" showErrorMessage="1" errorTitle="Select valid value" sqref="AA2:AA1048576">
-      <x:formula1>=DataValidation!$I$1:$I$2</x:formula1>
-    </x:dataValidation>
-    <x:dataValidation type="list" allowBlank="0" showErrorMessage="1" errorTitle="Select valid value" sqref="AD2:AD1048576">
-      <x:formula1>=DataValidation!$K$1:$K$13</x:formula1>
-    </x:dataValidation>
-  </x:dataValidations>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup orientation="portrait" r:id="rId1"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF0B1EA-B5D2-4F2C-8109-5D8B719D8F3C}">
+  <dimension ref="A1:BM2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.21875" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="22" width="23.21875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.77734375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="22" width="22.77734375" collapsed="true"/>
+    <col min="8" max="11" bestFit="true" customWidth="true" width="22.77734375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="14" max="16" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="5.21875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="19.77734375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
+    <col min="28" max="31" customWidth="true" style="22" width="20.21875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="53.6640625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="53.21875" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="29.88671875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="22" width="17.88671875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="22" width="26.6640625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="I1" s="87" t="s">
+        <v>654</v>
+      </c>
+      <c r="J1" s="87" t="s">
+        <v>656</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="AX1" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="BA1" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="BB1" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="BC1" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="BD1" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="BE1" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BF1" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="BG1" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="BH1" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="BI1" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="BJ1" s="81" t="s">
+        <v>637</v>
+      </c>
+      <c r="BK1" s="81" t="s">
+        <v>638</v>
+      </c>
+      <c r="BL1" s="83" t="s">
+        <v>648</v>
+      </c>
+      <c r="BM1" s="83" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="S2" s="11"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"BOM"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>DataValidation!$E$1:$E$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>S2:S1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000002000000}">
+          <x14:formula1>
+            <xm:f>DataValidation!$J$1:$J$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>T2:T1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000003000000}">
+          <x14:formula1>
+            <xm:f>DataValidation!$G$1:$G$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>U2:U1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000004000000}">
+          <x14:formula1>
+            <xm:f>DataValidation!$F$1:$F$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>V2:V1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000005000000}">
+          <x14:formula1>
+            <xm:f>DataValidation!$H$1:$H$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z2:Z1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000006000000}">
+          <x14:formula1>
+            <xm:f>DataValidation!$I$1:$I$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>AA2:AA1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showErrorMessage="1" errorTitle="Select valid value" xr:uid="{00000000-0002-0000-0200-000007000000}">
+          <x14:formula1>
+            <xm:f>DataValidation!$K$1:$K$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>AD2:AD1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{AA85A47B-3D05-4DCE-8942-1D84BA0710E7}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="E19" sqref="E19"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:sheetData>
-    <x:row r="1">
-      <x:c r="E1" t="str">
-        <x:v>New</x:v>
-      </x:c>
-      <x:c r="F1" t="str">
-        <x:v>None</x:v>
-      </x:c>
-      <x:c r="G1" t="str">
-        <x:v>Very Low</x:v>
-      </x:c>
-      <x:c r="H1" t="str">
-        <x:v>Yes</x:v>
-      </x:c>
-      <x:c r="I1" t="str">
-        <x:v>Yes</x:v>
-      </x:c>
-      <x:c r="J1" t="str">
-        <x:v>None</x:v>
-      </x:c>
-      <x:c r="K1" t="str">
-        <x:v>Plan</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2">
-      <x:c r="E2" t="str">
-        <x:v>In Progress</x:v>
-      </x:c>
-      <x:c r="F2" t="str">
-        <x:v>Project Management</x:v>
-      </x:c>
-      <x:c r="G2" t="str">
-        <x:v>Low</x:v>
-      </x:c>
-      <x:c r="H2" t="str">
-        <x:v>No</x:v>
-      </x:c>
-      <x:c r="I2" t="str">
-        <x:v>No</x:v>
-      </x:c>
-      <x:c r="J2" t="str">
-        <x:v>Team</x:v>
-      </x:c>
-      <x:c r="K2" t="str">
-        <x:v>Analyze</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3">
-      <x:c r="E3" t="str">
-        <x:v>On Hold</x:v>
-      </x:c>
-      <x:c r="F3" t="str">
-        <x:v>Plan</x:v>
-      </x:c>
-      <x:c r="G3" t="str">
-        <x:v>Medium</x:v>
-      </x:c>
-      <x:c r="J3" t="str">
-        <x:v>Iteration</x:v>
-      </x:c>
-      <x:c r="K3" t="str">
-        <x:v>Design</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4">
-      <x:c r="E4" t="str">
-        <x:v>Closed</x:v>
-      </x:c>
-      <x:c r="F4" t="str">
-        <x:v>Application</x:v>
-      </x:c>
-      <x:c r="G4" t="str">
-        <x:v>High</x:v>
-      </x:c>
-      <x:c r="J4" t="str">
-        <x:v>Workstream</x:v>
-      </x:c>
-      <x:c r="K4" t="str">
-        <x:v>Detailed Technical Design</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5">
-      <x:c r="E5" t="str">
-        <x:v>Duplicate</x:v>
-      </x:c>
-      <x:c r="F5" t="str">
-        <x:v>Architecture</x:v>
-      </x:c>
-      <x:c r="G5" t="str">
-        <x:v>Very High</x:v>
-      </x:c>
-      <x:c r="J5" t="str">
-        <x:v>Contract</x:v>
-      </x:c>
-      <x:c r="K5" t="str">
-        <x:v>Build</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6">
-      <x:c r="E6" t="str">
-        <x:v>Cancelled</x:v>
-      </x:c>
-      <x:c r="F6" t="str">
-        <x:v>Change Enablement</x:v>
-      </x:c>
-      <x:c r="G6" t="str">
-        <x:v>Unclassified</x:v>
-      </x:c>
-      <x:c r="J6" t="str">
-        <x:v>Client</x:v>
-      </x:c>
-      <x:c r="K6" t="str">
-        <x:v>Component Test</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7">
-      <x:c r="E7" t="str">
-        <x:v>Rejected</x:v>
-      </x:c>
-      <x:c r="F7" t="str">
-        <x:v>Service Introduction</x:v>
-      </x:c>
-      <x:c r="K7" t="str">
-        <x:v>Assembly Test</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8">
-      <x:c r="F8" t="str">
-        <x:v>Deploy</x:v>
-      </x:c>
-      <x:c r="K8" t="str">
-        <x:v>Integration Test</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9">
-      <x:c r="F9" t="str">
-        <x:v>Requirements/Features</x:v>
-      </x:c>
-      <x:c r="K9" t="str">
-        <x:v>Product Test</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10">
-      <x:c r="F10" t="str">
-        <x:v>Design</x:v>
-      </x:c>
-      <x:c r="K10" t="str">
-        <x:v>Performance and Service Level Test</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11">
-      <x:c r="F11" t="str">
-        <x:v>Build</x:v>
-      </x:c>
-      <x:c r="K11" t="str">
-        <x:v>User Acceptance Test</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12">
-      <x:c r="F12" t="str">
-        <x:v>Test &amp; Defect</x:v>
-      </x:c>
-      <x:c r="K12" t="str">
-        <x:v>Deploy</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13">
-      <x:c r="F13" t="str">
-        <x:v>Release</x:v>
-      </x:c>
-      <x:c r="K13" t="str">
-        <x:v>Production</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14">
-      <x:c r="F14" t="str">
-        <x:v>Operate</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15">
-      <x:c r="F15" t="str">
-        <x:v>Infrastructure</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16">
-      <x:c r="F16" t="str">
-        <x:v>Value/Business Case</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17">
-      <x:c r="F17" t="str">
-        <x:v>Deliverables</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18">
-      <x:c r="F18" t="str">
-        <x:v>Change Control</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19">
-      <x:c r="F19" t="str">
-        <x:v>Planning/Estimating</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20">
-      <x:c r="F20" t="str">
-        <x:v>Management/Governance</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21">
-      <x:c r="F21" t="str">
-        <x:v>People</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22">
-      <x:c r="F22" t="str">
-        <x:v>Resourcing/Staffing</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23">
-      <x:c r="F23" t="str">
-        <x:v>Reporting/Analytics</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24">
-      <x:c r="F24" t="str">
-        <x:v>Knowledge/Assets</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25">
-      <x:c r="F25" t="str">
-        <x:v>Training/Enablement</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup orientation="portrait" r:id="rId1"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA85A47B-3D05-4DCE-8942-1D84BA0710E7}">
+  <dimension ref="E1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I1" t="s">
+        <v>683</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>685</v>
+      </c>
+      <c r="H2" t="s">
+        <v>686</v>
+      </c>
+      <c r="I2" t="s">
+        <v>686</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>688</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>689</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>690</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>691</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>693</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>694</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>695</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>697</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>483</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F589723C5CF9BF4888831BB2DC69A718" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d91ee2624ae14a4be9994568eb03d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc0735e1-1781-4e64-a3a6-cf1bacd21285" xmlns:ns3="acee2d6b-dd79-4fb3-8fb4-89e5568edfef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf92cc8814d37b02d77c323fc2a11963" ns2:_="" ns3:_="">
     <xsd:import namespace="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
@@ -8194,6 +8250,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8204,23 +8266,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BCECA1-7A17-4605-AE73-73B4F527C894}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="acee2d6b-dd79-4fb3-8fb4-89e5568edfef"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{090AF72E-503D-4D63-A8FB-B98DEABA3FFD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8239,6 +8284,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87BCECA1-7A17-4605-AE73-73B4F527C894}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="acee2d6b-dd79-4fb3-8fb4-89e5568edfef"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
   <ds:schemaRefs>

--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Action.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonal.harish.nagda\ART\ART_TestAutomationCode\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT\master\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6875EEB-C857-43B4-981C-E380F4C00387}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D55B8BE-6C1C-441A-8FF2-ED0BB3D3110C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="680" activeTab="2" xr2:uid="{4ADEDBBA-C616-478B-B7B7-DF7FEDCE3438}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="25" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="700">
   <si>
     <t>Title</t>
   </si>
@@ -1647,16 +1647,7 @@
     <t>Linked[Deliverables].ID</t>
   </si>
   <si>
-    <t>https://xyz.accenture.com/browse/PUAT1-1467</t>
-  </si>
-  <si>
-    <t>abc.d.xyz@mywizard.com</t>
-  </si>
-  <si>
     <t>2020-02-04T12:47:53Z</t>
-  </si>
-  <si>
-    <t>2020-02-04T12:49:55Z</t>
   </si>
   <si>
     <t>Epic1,Epic2;Story1,Story2;Feature2</t>
@@ -2091,18 +2082,12 @@
     <t>2021-08-02T06:12:57Z</t>
   </si>
   <si>
-    <t>BOM-118871</t>
-  </si>
-  <si>
     <t>Action_AutomationData_GenericUploader</t>
   </si>
   <si>
     <t>BOM</t>
   </si>
   <si>
-    <t>2021-08-02T08:22:23Z</t>
-  </si>
-  <si>
     <t>Plan</t>
   </si>
   <si>
@@ -2178,13 +2163,7 @@
     <t>Production</t>
   </si>
   <si>
-    <t>BOM-77679</t>
-  </si>
-  <si>
-    <t>2021-08-13T05:33:24Z</t>
-  </si>
-  <si>
-    <t>testuser01art@ds.dev.accenture.com</t>
+    <t>BOM-125496</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2173,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3137,18 +3116,18 @@
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="10.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="59.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="16.21875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="11.88671875" collapsed="true"/>
-    <col min="5" max="5" style="4" width="8.77734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="14.21875" collapsed="true"/>
-    <col min="7" max="16384" style="4" width="8.77734375" collapsed="true"/>
+    <col min="1" max="1" width="10.81640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="59.453125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.90625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.81640625" style="4" collapsed="1"/>
+    <col min="6" max="6" width="14.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="8.81640625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>59</v>
       </c>
@@ -3162,374 +3141,374 @@
         <v>497</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C10" s="18">
         <v>43992</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="76">
         <v>10</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C11" s="78">
         <v>44022</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E11" s="79"/>
       <c r="F11" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C12" s="18">
         <v>44022</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C13" s="18">
         <v>44054</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C14" s="18">
         <v>44054</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C15" s="18">
         <v>44054</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C16" s="18">
         <v>44054</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C17" s="18">
         <v>44120</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C18" s="18">
         <v>44125</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C19" s="18">
         <v>44169</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="88">
         <v>19</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C20" s="90">
         <v>44263</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E20" s="91"/>
       <c r="F20" s="91"/>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C21" s="18">
         <v>44363</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C22" s="95">
         <v>44403</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -3547,17 +3526,17 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="62.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="27.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="50.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.21875" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.21875" collapsed="true"/>
+    <col min="1" max="1" width="62.36328125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.36328125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.36328125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>45</v>
       </c>
@@ -3567,7 +3546,7 @@
         <v>46</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3590,13 +3569,13 @@
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="40" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E3" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>50</v>
       </c>
@@ -3607,7 +3586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>51</v>
       </c>
@@ -3620,14 +3599,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="47"/>
       <c r="C6" s="47"/>
       <c r="D6" s="48" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E6" s="66" t="s">
         <v>49</v>
@@ -3640,26 +3619,26 @@
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
       <c r="D7" s="48" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E7" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B8" s="49"/>
       <c r="C8" s="68"/>
       <c r="D8" s="69" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E8" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50" t="s">
         <v>55</v>
       </c>
@@ -3667,22 +3646,22 @@
         <v>58</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="53"/>
     </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>504</v>
@@ -3691,15 +3670,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>505</v>
@@ -3708,7 +3687,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
         <v>0</v>
       </c>
@@ -3716,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>506</v>
@@ -3725,7 +3704,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>1</v>
       </c>
@@ -3733,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>507</v>
@@ -3742,7 +3721,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
         <v>2</v>
       </c>
@@ -3750,7 +3729,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>515</v>
@@ -3759,15 +3738,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>508</v>
@@ -3776,32 +3755,32 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A16" s="55" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A17" s="55" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>498</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>509</v>
@@ -3810,32 +3789,32 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="24" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="24" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E18" s="85" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="24" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="24" customFormat="1" ht="26" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D19" s="84" t="s">
         <v>503</v>
@@ -3844,41 +3823,41 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B20" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="D20" s="80" t="s">
         <v>615</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="D20" s="80" t="s">
-        <v>618</v>
       </c>
       <c r="E20" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
+        <v>611</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="D21" s="80" t="s">
         <v>614</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>616</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="D21" s="80" t="s">
-        <v>617</v>
       </c>
       <c r="E21" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="65" x14ac:dyDescent="0.25">
       <c r="A22" s="55" t="s">
         <v>4</v>
       </c>
@@ -3886,135 +3865,135 @@
         <v>499</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E22" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E23" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A24" s="55" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E24" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A25" s="55" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E25" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="52" x14ac:dyDescent="0.25">
       <c r="A26" s="55" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E26" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E27" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="52" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>502</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E28" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A29" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E29" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="52" x14ac:dyDescent="0.25">
       <c r="A30" s="55" t="s">
         <v>5</v>
       </c>
@@ -4022,7 +4001,7 @@
         <v>501</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>510</v>
@@ -4031,7 +4010,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="52" x14ac:dyDescent="0.25">
       <c r="A31" s="55" t="s">
         <v>8</v>
       </c>
@@ -4039,7 +4018,7 @@
         <v>500</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>511</v>
@@ -4048,118 +4027,118 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="26" x14ac:dyDescent="0.25">
       <c r="A32" s="55" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>512</v>
       </c>
       <c r="E32" s="23"/>
     </row>
-    <row r="33" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="39" x14ac:dyDescent="0.25">
       <c r="A33" s="55" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E33" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D34" s="71" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E34" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C35" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="D35" s="71" t="s">
         <v>592</v>
-      </c>
-      <c r="D35" s="71" t="s">
-        <v>595</v>
       </c>
       <c r="E35" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="52" x14ac:dyDescent="0.25">
       <c r="A36" s="55" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E36" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="52" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="72" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E37" s="66" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="87" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B38" s="84"/>
       <c r="C38" s="86"/>
       <c r="D38" s="96" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E38" s="85" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="87" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B39" s="84"/>
       <c r="C39" s="86"/>
@@ -4168,22 +4147,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="94" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B40" s="84" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C40" s="86" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D40" s="93"/>
       <c r="E40" s="85" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="94" t="s">
         <v>21</v>
       </c>
@@ -4191,14 +4170,14 @@
         <v>21</v>
       </c>
       <c r="C41" s="86" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D41" s="93"/>
       <c r="E41" s="85" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="59" t="s">
         <v>67</v>
       </c>
@@ -4211,14 +4190,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="26"/>
       <c r="B43" s="61"/>
       <c r="C43" s="61"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
     </row>
-    <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="62" t="s">
         <v>57</v>
       </c>
@@ -4227,7 +4206,7 @@
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
     </row>
-    <row r="45" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="47" t="s">
         <v>9</v>
       </c>
@@ -4240,7 +4219,7 @@
       </c>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="47"/>
       <c r="B46" s="27" t="s">
         <v>17</v>
@@ -4251,7 +4230,7 @@
       </c>
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="47"/>
       <c r="B47" s="27" t="s">
         <v>20</v>
@@ -4262,7 +4241,7 @@
       </c>
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="47"/>
       <c r="B48" s="27" t="s">
         <v>23</v>
@@ -4273,7 +4252,7 @@
       </c>
       <c r="E48" s="22"/>
     </row>
-    <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="47"/>
       <c r="B49" s="27" t="s">
         <v>25</v>
@@ -4284,7 +4263,7 @@
       </c>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="47"/>
       <c r="B50" s="27" t="s">
         <v>29</v>
@@ -4295,7 +4274,7 @@
       </c>
       <c r="E50" s="22"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A51" s="47"/>
       <c r="B51" s="27" t="s">
         <v>30</v>
@@ -4305,7 +4284,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A52" s="47"/>
       <c r="B52" s="27" t="s">
         <v>31</v>
@@ -4315,7 +4294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A53" s="47"/>
       <c r="B53" s="27" t="s">
         <v>32</v>
@@ -4325,7 +4304,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>
       <c r="B54" s="27" t="s">
         <v>65</v>
@@ -4335,7 +4314,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A55" s="47"/>
       <c r="B55" s="27" t="s">
         <v>66</v>
@@ -4345,7 +4324,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
       <c r="B56" s="27" t="s">
         <v>513</v>
@@ -4353,7 +4332,7 @@
       <c r="C56" s="27"/>
       <c r="D56" s="48"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A57" s="47"/>
       <c r="B57" s="27" t="s">
         <v>10</v>
@@ -4361,7 +4340,7 @@
       <c r="C57" s="27"/>
       <c r="D57" s="48"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
         <v>5</v>
       </c>
@@ -4373,7 +4352,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A59" s="47"/>
       <c r="B59" s="28" t="s">
         <v>15</v>
@@ -4383,7 +4362,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A60" s="47"/>
       <c r="B60" s="28" t="s">
         <v>18</v>
@@ -4393,7 +4372,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A61" s="47"/>
       <c r="B61" s="28" t="s">
         <v>21</v>
@@ -4403,7 +4382,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A62" s="47"/>
       <c r="B62" s="28" t="s">
         <v>24</v>
@@ -4413,7 +4392,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A63" s="47"/>
       <c r="B63" s="29" t="s">
         <v>26</v>
@@ -4423,12 +4402,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C64" s="30"/>
       <c r="D64" s="48" t="s">
@@ -7003,7 +6982,7 @@
       <c r="C354" s="63"/>
       <c r="D354" s="48"/>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A355" s="31" t="s">
         <v>8</v>
       </c>
@@ -7013,7 +6992,7 @@
       <c r="C355" s="32"/>
       <c r="D355" s="48"/>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A356" s="31"/>
       <c r="B356" s="32" t="s">
         <v>34</v>
@@ -7021,7 +7000,7 @@
       <c r="C356" s="32"/>
       <c r="D356" s="48"/>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A357" s="47"/>
       <c r="B357" s="32" t="s">
         <v>14</v>
@@ -7029,7 +7008,7 @@
       <c r="C357" s="32"/>
       <c r="D357" s="48"/>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A358" s="47"/>
       <c r="B358" s="32" t="s">
         <v>35</v>
@@ -7037,7 +7016,7 @@
       <c r="C358" s="32"/>
       <c r="D358" s="48"/>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A359" s="47"/>
       <c r="B359" s="32" t="s">
         <v>12</v>
@@ -7045,7 +7024,7 @@
       <c r="C359" s="32"/>
       <c r="D359" s="48"/>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A360" s="47"/>
       <c r="B360" s="32" t="s">
         <v>36</v>
@@ -7053,7 +7032,7 @@
       <c r="C360" s="32"/>
       <c r="D360" s="48"/>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A361" s="47"/>
       <c r="B361" s="32" t="s">
         <v>37</v>
@@ -7061,7 +7040,7 @@
       <c r="C361" s="32"/>
       <c r="D361" s="48"/>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A362" s="47"/>
       <c r="B362" s="32" t="s">
         <v>33</v>
@@ -7069,7 +7048,7 @@
       <c r="C362" s="32"/>
       <c r="D362" s="48"/>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A363" s="47"/>
       <c r="B363" s="32" t="s">
         <v>16</v>
@@ -7077,7 +7056,7 @@
       <c r="C363" s="32"/>
       <c r="D363" s="48"/>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A364" s="47"/>
       <c r="B364" s="32" t="s">
         <v>19</v>
@@ -7085,7 +7064,7 @@
       <c r="C364" s="32"/>
       <c r="D364" s="48"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A365" s="47"/>
       <c r="B365" s="32" t="s">
         <v>22</v>
@@ -7093,7 +7072,7 @@
       <c r="C365" s="32"/>
       <c r="D365" s="48"/>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A366" s="47"/>
       <c r="B366" s="32" t="s">
         <v>483</v>
@@ -7101,7 +7080,7 @@
       <c r="C366" s="32"/>
       <c r="D366" s="48"/>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A367" s="47"/>
       <c r="B367" s="32" t="s">
         <v>28</v>
@@ -7109,7 +7088,7 @@
       <c r="C367" s="32"/>
       <c r="D367" s="48"/>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A368" s="47"/>
       <c r="B368" s="32" t="s">
         <v>484</v>
@@ -7117,7 +7096,7 @@
       <c r="C368" s="32"/>
       <c r="D368" s="48"/>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A369" s="47"/>
       <c r="B369" s="32" t="s">
         <v>485</v>
@@ -7125,7 +7104,7 @@
       <c r="C369" s="32"/>
       <c r="D369" s="48"/>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A370" s="47"/>
       <c r="B370" s="32" t="s">
         <v>486</v>
@@ -7133,7 +7112,7 @@
       <c r="C370" s="32"/>
       <c r="D370" s="48"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A371" s="47"/>
       <c r="B371" s="32" t="s">
         <v>487</v>
@@ -7141,7 +7120,7 @@
       <c r="C371" s="32"/>
       <c r="D371" s="48"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A372" s="47"/>
       <c r="B372" s="32" t="s">
         <v>488</v>
@@ -7149,7 +7128,7 @@
       <c r="C372" s="32"/>
       <c r="D372" s="48"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A373" s="47"/>
       <c r="B373" s="32" t="s">
         <v>489</v>
@@ -7157,7 +7136,7 @@
       <c r="C373" s="32"/>
       <c r="D373" s="48"/>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A374" s="47"/>
       <c r="B374" s="32" t="s">
         <v>490</v>
@@ -7165,7 +7144,7 @@
       <c r="C374" s="32"/>
       <c r="D374" s="48"/>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A375" s="47"/>
       <c r="B375" s="32" t="s">
         <v>491</v>
@@ -7173,7 +7152,7 @@
       <c r="C375" s="32"/>
       <c r="D375" s="48"/>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A376" s="47"/>
       <c r="B376" s="32" t="s">
         <v>492</v>
@@ -7181,7 +7160,7 @@
       <c r="C376" s="32"/>
       <c r="D376" s="48"/>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A377" s="47"/>
       <c r="B377" s="32" t="s">
         <v>493</v>
@@ -7189,7 +7168,7 @@
       <c r="C377" s="32"/>
       <c r="D377" s="48"/>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A378" s="47"/>
       <c r="B378" s="32" t="s">
         <v>494</v>
@@ -7197,7 +7176,7 @@
       <c r="C378" s="32"/>
       <c r="D378" s="48"/>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="A379" s="47"/>
       <c r="B379" s="32" t="s">
         <v>495</v>
@@ -7205,7 +7184,7 @@
       <c r="C379" s="32"/>
       <c r="D379" s="48"/>
     </row>
-    <row r="380" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A380" s="48" t="s">
         <v>7</v>
       </c>
@@ -7215,7 +7194,7 @@
       <c r="C380" s="73"/>
       <c r="D380" s="22"/>
     </row>
-    <row r="381" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A381" s="22"/>
       <c r="B381" s="32" t="s">
         <v>496</v>
@@ -7223,7 +7202,7 @@
       <c r="C381" s="73"/>
       <c r="D381" s="22"/>
     </row>
-    <row r="382" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A382" s="22"/>
       <c r="B382" s="32" t="s">
         <v>27</v>
@@ -7231,23 +7210,23 @@
       <c r="C382" s="73"/>
       <c r="D382" s="22"/>
     </row>
-    <row r="383" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A383" s="58" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B383" s="22"/>
       <c r="C383" s="22"/>
       <c r="D383" s="22"/>
     </row>
-    <row r="384" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A384" s="22"/>
       <c r="B384" s="64" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C384" s="74"/>
       <c r="D384" s="22"/>
     </row>
-    <row r="385" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A385" s="22"/>
       <c r="B385" s="64" t="s">
         <v>34</v>
@@ -7255,7 +7234,7 @@
       <c r="C385" s="74"/>
       <c r="D385" s="22"/>
     </row>
-    <row r="386" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A386" s="22"/>
       <c r="B386" s="64" t="s">
         <v>14</v>
@@ -7263,133 +7242,133 @@
       <c r="C386" s="74"/>
       <c r="D386" s="22"/>
     </row>
-    <row r="387" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B387" s="64" t="s">
         <v>35</v>
       </c>
       <c r="C387" s="74"/>
     </row>
-    <row r="388" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B388" s="64" t="s">
         <v>12</v>
       </c>
       <c r="C388" s="74"/>
     </row>
-    <row r="389" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B389" s="64" t="s">
         <v>36</v>
       </c>
       <c r="C389" s="74"/>
     </row>
-    <row r="390" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B390" s="64" t="s">
         <v>37</v>
       </c>
       <c r="C390" s="74"/>
     </row>
-    <row r="391" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B391" s="64" t="s">
         <v>33</v>
       </c>
       <c r="C391" s="74"/>
     </row>
-    <row r="392" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B392" s="65" t="s">
         <v>16</v>
       </c>
       <c r="C392" s="75"/>
     </row>
-    <row r="393" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B393" s="65" t="s">
         <v>19</v>
       </c>
       <c r="C393" s="75"/>
     </row>
-    <row r="394" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B394" s="65" t="s">
         <v>22</v>
       </c>
       <c r="C394" s="75"/>
     </row>
-    <row r="395" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B395" s="65" t="s">
         <v>483</v>
       </c>
       <c r="C395" s="75"/>
     </row>
-    <row r="396" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B396" s="65" t="s">
         <v>28</v>
       </c>
       <c r="C396" s="75"/>
     </row>
-    <row r="397" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B397" s="65" t="s">
         <v>484</v>
       </c>
       <c r="C397" s="75"/>
     </row>
-    <row r="398" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B398" s="65" t="s">
         <v>485</v>
       </c>
       <c r="C398" s="75"/>
     </row>
-    <row r="399" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B399" s="65" t="s">
         <v>486</v>
       </c>
       <c r="C399" s="75"/>
     </row>
-    <row r="400" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="13" x14ac:dyDescent="0.25">
       <c r="B400" s="65" t="s">
         <v>487</v>
       </c>
       <c r="C400" s="75"/>
     </row>
-    <row r="401" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B401" s="65" t="s">
         <v>488</v>
       </c>
       <c r="C401" s="75"/>
     </row>
-    <row r="402" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B402" s="65" t="s">
         <v>489</v>
       </c>
       <c r="C402" s="75"/>
     </row>
-    <row r="403" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B403" s="65" t="s">
         <v>490</v>
       </c>
       <c r="C403" s="75"/>
     </row>
-    <row r="404" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B404" s="65" t="s">
         <v>491</v>
       </c>
       <c r="C404" s="75"/>
     </row>
-    <row r="405" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B405" s="65" t="s">
         <v>492</v>
       </c>
       <c r="C405" s="75"/>
     </row>
-    <row r="406" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B406" s="65" t="s">
         <v>493</v>
       </c>
       <c r="C406" s="75"/>
     </row>
-    <row r="407" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B407" s="65" t="s">
         <v>494</v>
       </c>
       <c r="C407" s="75"/>
     </row>
-    <row r="408" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B408" s="65" t="s">
         <v>495</v>
       </c>
@@ -7409,65 +7388,65 @@
   <dimension ref="A1:BM2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="41.21875" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="22" width="23.21875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.77734375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="22" width="22.77734375" collapsed="true"/>
-    <col min="8" max="11" bestFit="true" customWidth="true" width="22.77734375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="14" max="16" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.21875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="5.21875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="19.77734375" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
-    <col min="28" max="31" customWidth="true" style="22" width="20.21875" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="53.6640625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="53.21875" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="29.88671875" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="22.88671875" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="22" width="17.88671875" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="22" width="26.6640625" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="20.21875" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.1796875" style="22" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.81640625" style="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="11" width="22.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="19.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="5.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="19.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="19.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="31" width="20.1796875" style="22" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="19.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="22.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="17.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="26.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="19.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="28.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="14.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="53.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="53.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="29.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="21.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="29.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="22.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="16.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="17.90625" style="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="26.6328125" style="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="24.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="20.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="23.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="24.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="19.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="29" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>62</v>
       </c>
@@ -7481,46 +7460,46 @@
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="I1" s="87" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="J1" s="87" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L1" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="P1" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="M1" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>550</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>548</v>
-      </c>
       <c r="Q1" s="20" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="S1" s="21" t="s">
         <v>4</v>
@@ -7535,28 +7514,28 @@
         <v>8</v>
       </c>
       <c r="W1" s="20" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="Y1" s="17" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="Z1" s="20" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AA1" s="20" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AB1" s="20" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AC1" s="20" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AD1" s="20" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="AE1" s="20" t="s">
         <v>21</v>
@@ -7610,16 +7589,16 @@
         <v>521</v>
       </c>
       <c r="AV1" s="8" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AW1" s="8" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AY1" s="8" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AZ1" s="8" t="s">
         <v>533</v>
@@ -7628,116 +7607,94 @@
         <v>522</v>
       </c>
       <c r="BB1" s="8" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="BC1" s="8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="BD1" s="8" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="BE1" s="8" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="BF1" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="BG1" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="BH1" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="BI1" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BJ1" s="81" t="s">
         <v>634</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BK1" s="81" t="s">
         <v>635</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BL1" s="83" t="s">
+        <v>645</v>
+      </c>
+      <c r="BM1" s="83" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="BJ1" s="81" t="s">
-        <v>637</v>
-      </c>
-      <c r="BK1" s="81" t="s">
-        <v>638</v>
-      </c>
-      <c r="BL1" s="83" t="s">
-        <v>648</v>
-      </c>
-      <c r="BM1" s="83" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>639</v>
-      </c>
       <c r="E2" s="12" t="s">
-        <v>677</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>706</v>
-      </c>
+        <v>673</v>
+      </c>
+      <c r="F2" s="16"/>
       <c r="G2" s="12"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>535</v>
-      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>674</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>536</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
       <c r="S2" s="11"/>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
-      <c r="W2" s="11" t="s">
-        <v>536</v>
-      </c>
+      <c r="W2" s="11"/>
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="12" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AF2" s="12" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
@@ -7830,23 +7787,23 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="I1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
@@ -7855,38 +7812,38 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="H2" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="I2" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="J2" t="s">
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="3" spans="5:11" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -7895,32 +7852,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
@@ -7929,9 +7886,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F6" t="s">
         <v>36</v>
@@ -7943,53 +7900,53 @@
         <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.3">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
         <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>483</v>
       </c>
@@ -7997,70 +7954,70 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
         <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F16" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F19" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F21" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F23" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F24" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F25" t="s">
         <v>495</v>
       </c>
@@ -8072,6 +8029,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F589723C5CF9BF4888831BB2DC69A718" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d91ee2624ae14a4be9994568eb03d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc0735e1-1781-4e64-a3a6-cf1bacd21285" xmlns:ns3="acee2d6b-dd79-4fb3-8fb4-89e5568edfef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf92cc8814d37b02d77c323fc2a11963" ns2:_="" ns3:_="">
     <xsd:import namespace="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
@@ -8250,36 +8222,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{090AF72E-503D-4D63-A8FB-B98DEABA3FFD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
-    <ds:schemaRef ds:uri="acee2d6b-dd79-4fb3-8fb4-89e5568edfef"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8302,9 +8248,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F359188-8654-4AC8-AEDD-04D6FE3DA0A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{090AF72E-503D-4D63-A8FB-B98DEABA3FFD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bc0735e1-1781-4e64-a3a6-cf1bacd21285"/>
+    <ds:schemaRef ds:uri="acee2d6b-dd79-4fb3-8fb4-89e5568edfef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Action.xlsx
+++ b/src/test/resources/testdata/DataLoader/GenericUploader/ADTJira/Excel/Action.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.gurulingaiah\Automation_GIT\master\src\test\resources\testdata\DataLoader\GenericUploader\ADTJira\Excel\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="702">
   <si>
     <t>Title</t>
   </si>
@@ -2164,6 +2164,12 @@
   </si>
   <si>
     <t>BOM-125496</t>
+  </si>
+  <si>
+    <t>BOM-90831</t>
+  </si>
+  <si>
+    <t>BOM-78498</t>
   </si>
 </sst>
 </file>
@@ -2173,7 +2179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3118,13 +3124,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.453125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.90625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.81640625" style="4" collapsed="1"/>
-    <col min="6" max="6" width="14.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="8.81640625" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="10.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="59.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="16.1796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="11.90625" collapsed="true"/>
+    <col min="5" max="5" style="4" width="8.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="14.1796875" collapsed="true"/>
+    <col min="7" max="16384" style="4" width="8.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -3528,12 +3534,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.36328125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.36328125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.36328125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="62.36328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="27.36328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="50.36328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="6.1796875" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -7393,57 +7399,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.1796875" style="22" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.81640625" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="11" width="22.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="19.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="5.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="19.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="19.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="31" width="20.1796875" style="22" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="10.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="22.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="17.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="26.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="19.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="28.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="14.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="53.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="53.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="29.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="21.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="30" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="29.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="22.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="16.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="17.90625" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="26.6328125" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="24.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="20.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="23.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="24.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="19.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.1796875" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.1796875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="22" width="23.1796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.81640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="22" width="22.81640625" collapsed="true"/>
+    <col min="8" max="11" bestFit="true" customWidth="true" width="22.81640625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.1796875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.54296875" collapsed="true"/>
+    <col min="14" max="16" bestFit="true" customWidth="true" width="19.1796875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="5.1796875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.453125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="19.81640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="20.1796875" collapsed="true"/>
+    <col min="28" max="31" customWidth="true" style="22" width="20.1796875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.6328125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="19.1796875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="22.90625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="17.36328125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="26.08984375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="19.6328125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="28.36328125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="53.6328125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="53.1796875" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="29.90625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="21.1796875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="29.90625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="22.90625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="16.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="22" width="17.90625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="22" width="26.6328125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="24.90625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="20.1796875" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="23.08984375" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="24.6328125" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.35">
@@ -7645,7 +7651,7 @@
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="12" t="s">
